--- a/RUDN/Importance/Varible_muatal_in_Central America.xlsx
+++ b/RUDN/Importance/Varible_muatal_in_Central America.xlsx
@@ -22,12 +22,12 @@
     <t>Urban population (% of total)</t>
   </si>
   <si>
+    <t>Population ages 80 and older, female (% of female population)</t>
+  </si>
+  <si>
     <t>Population ages 45-49, female (% of female population)</t>
   </si>
   <si>
-    <t>Population ages 80 and older, female (% of female population)</t>
-  </si>
-  <si>
     <t>Population ages 65 and above, female (% of total)</t>
   </si>
   <si>
@@ -37,15 +37,15 @@
     <t>Population ages 00-14, male (% of total)</t>
   </si>
   <si>
+    <t>GNI per capita, PPP (current international $)</t>
+  </si>
+  <si>
+    <t>Rural population growth (annual %)</t>
+  </si>
+  <si>
     <t>Mortality rate, neonatal (per 1,000 live births)</t>
   </si>
   <si>
-    <t>Rural population growth (annual %)</t>
-  </si>
-  <si>
-    <t>GNI per capita, PPP (current international $)</t>
-  </si>
-  <si>
     <t>Population ages 65 and above (% of total)</t>
   </si>
   <si>
@@ -70,15 +70,15 @@
     <t>Population ages 15-19, male (% of male population)</t>
   </si>
   <si>
+    <t>Population ages 70-74, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Population ages 40-44, male (% of male population)</t>
+  </si>
+  <si>
     <t>Population ages 00-04, male (% of male population)</t>
   </si>
   <si>
-    <t>Population ages 70-74, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Population ages 40-44, male (% of male population)</t>
-  </si>
-  <si>
     <t>Age dependency ratio, young</t>
   </si>
   <si>
@@ -91,36 +91,36 @@
     <t>Women's share of population ages 15+ living with HIV (%)</t>
   </si>
   <si>
+    <t>Population ages 60-64, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Population ages 50-54, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Population ages 50-54, male (% of male population)</t>
+  </si>
+  <si>
     <t>Population ages 45-49, male (% of male population)</t>
   </si>
   <si>
-    <t>Population ages 50-54, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Population ages 60-64, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Population ages 50-54, male (% of male population)</t>
-  </si>
-  <si>
     <t>Population ages 05-09, female (% of female population)</t>
   </si>
   <si>
+    <t>Population ages 00-14, female (% of total)</t>
+  </si>
+  <si>
     <t>Population ages 65-69, female (% of female population)</t>
   </si>
   <si>
-    <t>Population ages 00-14, female (% of total)</t>
-  </si>
-  <si>
     <t>Population growth (annual %)</t>
   </si>
   <si>
+    <t>Population ages 65 and above, male (% of total)</t>
+  </si>
+  <si>
     <t>Population ages 55-59, female (% of female population)</t>
   </si>
   <si>
-    <t>Population ages 65 and above, male (% of total)</t>
-  </si>
-  <si>
     <t>Population ages 35-39, female (% of female population)</t>
   </si>
   <si>
@@ -130,6 +130,9 @@
     <t>Population ages 35-39, male (% of male population)</t>
   </si>
   <si>
+    <t>Children (0-14) living with HIV</t>
+  </si>
+  <si>
     <t>Population ages 00-04, female (% of female population)</t>
   </si>
   <si>
@@ -139,9 +142,6 @@
     <t>Population ages 60-64, female (% of female population)</t>
   </si>
   <si>
-    <t>Children (0-14) living with HIV</t>
-  </si>
-  <si>
     <t>Age dependency ratio (% of working-age population)</t>
   </si>
   <si>
@@ -151,12 +151,12 @@
     <t>Population ages 30-34, male (% of male population)</t>
   </si>
   <si>
+    <t>Population ages 15-64 (% of total)</t>
+  </si>
+  <si>
     <t>Population ages 20-24, male (% of male population)</t>
   </si>
   <si>
-    <t>Population ages 15-64 (% of total)</t>
-  </si>
-  <si>
     <t>Population ages 10-14, female (% of female population)</t>
   </si>
   <si>
@@ -172,15 +172,15 @@
     <t>Population ages 80 and older, male (% of male population)</t>
   </si>
   <si>
+    <t>Prevalence of HIV, total (% of population ages 15-49)</t>
+  </si>
+  <si>
+    <t>Population ages 75-79, male (% of male population)</t>
+  </si>
+  <si>
     <t>Population ages 65-69, male (% of male population)</t>
   </si>
   <si>
-    <t>Prevalence of HIV, total (% of population ages 15-49)</t>
-  </si>
-  <si>
-    <t>Population ages 75-79, male (% of male population)</t>
-  </si>
-  <si>
     <t>Population, male (% of total)</t>
   </si>
   <si>
@@ -190,54 +190,54 @@
     <t>Population ages 20-24, female (% of female population)</t>
   </si>
   <si>
+    <t>Country_code</t>
+  </si>
+  <si>
     <t>Proportion of seats held by women in national parliaments (%)</t>
   </si>
   <si>
-    <t>Country_code</t>
+    <t>Health expenditure per capita, PPP (constant 2011 international $)</t>
   </si>
   <si>
     <t>Health expenditure per capita, PPP</t>
   </si>
   <si>
-    <t>Health expenditure per capita, PPP (constant 2011 international $)</t>
-  </si>
-  <si>
     <t>Mortality rate, under-5 (per 1,000 live births)</t>
   </si>
   <si>
+    <t>Population ages 15-64, female (% of total)</t>
+  </si>
+  <si>
+    <t>GDP per capita (Current US$)</t>
+  </si>
+  <si>
+    <t>Fixed telephone subscriptions (per 100 people)</t>
+  </si>
+  <si>
     <t>Mortality rate, under-5 (per 1,000)</t>
   </si>
   <si>
-    <t>Population ages 15-64, female (% of total)</t>
-  </si>
-  <si>
-    <t>GDP per capita (Current US$)</t>
-  </si>
-  <si>
-    <t>Fixed telephone subscriptions (per 100 people)</t>
+    <t>Mortality rate, infant (per 1,000 live births)</t>
+  </si>
+  <si>
+    <t>Number of people who are undernourished</t>
   </si>
   <si>
     <t>GNI per capita, Atlas method (current US$)</t>
   </si>
   <si>
-    <t>Number of people who are undernourished</t>
-  </si>
-  <si>
-    <t>Mortality rate, infant (per 1,000 live births)</t>
-  </si>
-  <si>
     <t>Urban population growth (annual %)</t>
   </si>
   <si>
     <t>Lifetime risk of maternal death (1 in: rate varies by country)</t>
   </si>
   <si>
+    <t>Labor force participation rate, male (% of male population ages 15+) (modeled ILO estimate)</t>
+  </si>
+  <si>
     <t>Incidence of HIV (% of uninfected population ages 15-49)</t>
   </si>
   <si>
-    <t>Labor force participation rate, male (% of male population ages 15+) (modeled ILO estimate)</t>
-  </si>
-  <si>
     <t>Children orphaned by HIV/AIDS</t>
   </si>
   <si>
@@ -262,21 +262,21 @@
     <t>Labor force, female (% of total labor force)</t>
   </si>
   <si>
+    <t>Cost of business start-up procedures, female (% of GNI per capita)</t>
+  </si>
+  <si>
     <t>Cost of business start-up procedures, male (% of GNI per capita)</t>
   </si>
   <si>
-    <t>Cost of business start-up procedures, female (% of GNI per capita)</t>
-  </si>
-  <si>
     <t>Employment to population ratio, 15+, male (%) (modeled ILO estimate)</t>
   </si>
   <si>
+    <t>Prevalence of HIV, male (% ages 15-24)</t>
+  </si>
+  <si>
     <t>Rural population</t>
   </si>
   <si>
-    <t>Prevalence of HIV, male (% ages 15-24)</t>
-  </si>
-  <si>
     <t>Number of under-five deaths</t>
   </si>
   <si>
@@ -298,12 +298,12 @@
     <t>Labor force participation rate for ages 15-24, female (%) (modeled ILO estimate)</t>
   </si>
   <si>
+    <t>Adults (ages 15+) living with HIV</t>
+  </si>
+  <si>
     <t>Number of maternal deaths</t>
   </si>
   <si>
-    <t>Adults (ages 15+) living with HIV</t>
-  </si>
-  <si>
     <t>Number of neonatal deaths</t>
   </si>
   <si>
@@ -316,12 +316,12 @@
     <t>Unemployment, youth female (% of female labor force ages 15-24) (modeled ILO estimate)</t>
   </si>
   <si>
+    <t>Malaria cases reported</t>
+  </si>
+  <si>
     <t>Reported cases of malaria</t>
   </si>
   <si>
-    <t>Malaria cases reported</t>
-  </si>
-  <si>
     <t>Internet users (per 100 people)</t>
   </si>
   <si>
@@ -361,6 +361,9 @@
     <t>Age population, age 19, male, interpolated</t>
   </si>
   <si>
+    <t>Time required to start a business, male (days)</t>
+  </si>
+  <si>
     <t>Female population 20-24</t>
   </si>
   <si>
@@ -373,9 +376,6 @@
     <t>Male population 15-19</t>
   </si>
   <si>
-    <t>Time required to start a business, male (days)</t>
-  </si>
-  <si>
     <t>Population, female</t>
   </si>
   <si>
@@ -412,24 +412,24 @@
     <t>Age population, age 15, male, interpolated</t>
   </si>
   <si>
+    <t>Age population, age 14, female, interpolated</t>
+  </si>
+  <si>
     <t>Population ages 25-29, female (% of female population)</t>
   </si>
   <si>
-    <t>Age population, age 14, female, interpolated</t>
-  </si>
-  <si>
     <t>Population ages 15-64, total</t>
   </si>
   <si>
+    <t>Age population, age 14, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 22, male, interpolated</t>
+  </si>
+  <si>
     <t>Adults (ages 15+) and children (ages 0-14) newly infected with HIV</t>
   </si>
   <si>
-    <t>Age population, age 22, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 14, male, interpolated</t>
-  </si>
-  <si>
     <t>Male population 20-24</t>
   </si>
   <si>
@@ -448,18 +448,18 @@
     <t>Population, male</t>
   </si>
   <si>
+    <t>Unemployment, youth male (% of male labor force ages 15-24) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Population ages 15-64, male</t>
+  </si>
+  <si>
+    <t>Age population, age 23, male, interpolated</t>
+  </si>
+  <si>
     <t>Access to anti-retroviral drugs, female (%)</t>
   </si>
   <si>
-    <t>Population ages 15-64, male</t>
-  </si>
-  <si>
-    <t>Unemployment, youth male (% of male labor force ages 15-24) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Age population, age 23, male, interpolated</t>
-  </si>
-  <si>
     <t>Labor force, female</t>
   </si>
   <si>
@@ -514,90 +514,90 @@
     <t>Population ages 65 and above, female</t>
   </si>
   <si>
+    <t>Age population, age 12, male, interpolated</t>
+  </si>
+  <si>
+    <t>Unemployment with intermediate education, female (% of female labor force with intermediate education)</t>
+  </si>
+  <si>
+    <t>Unemployment with intermediate education, male (% of male labor force with intermediate education)</t>
+  </si>
+  <si>
     <t>Adults (ages 15+) newly infected with HIV</t>
   </si>
   <si>
-    <t>Unemployment with intermediate education, female (% of female labor force with intermediate education)</t>
-  </si>
-  <si>
-    <t>Unemployment with intermediate education, male (% of male labor force with intermediate education)</t>
-  </si>
-  <si>
-    <t>Age population, age 12, male, interpolated</t>
-  </si>
-  <si>
     <t>Female population 10-14</t>
   </si>
   <si>
+    <t>Age population, age 09, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 07, female, interpolated</t>
+  </si>
+  <si>
+    <t>Male population 10-14</t>
+  </si>
+  <si>
+    <t>Age population, age 08, female, interpolated</t>
+  </si>
+  <si>
+    <t>Population ages 65 and above, total</t>
+  </si>
+  <si>
+    <t>Age population, age 0, female, interpolated</t>
+  </si>
+  <si>
+    <t>Unemployment with basic education, female (% of female labor force with basic education)</t>
+  </si>
+  <si>
     <t>Unemployment with advanced education, female (% of female labor force with advanced education)</t>
   </si>
   <si>
     <t>Unemployment with advanced education, male (% of male labor force with advanced education)</t>
   </si>
   <si>
-    <t>Unemployment with basic education, female (% of female labor force with basic education)</t>
-  </si>
-  <si>
     <t>Unemployment with basic education, male (% of male labor force with basic education)</t>
   </si>
   <si>
-    <t>Age population, age 09, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 07, female, interpolated</t>
-  </si>
-  <si>
-    <t>Male population 10-14</t>
-  </si>
-  <si>
-    <t>Age population, age 08, female, interpolated</t>
-  </si>
-  <si>
-    <t>Population ages 65 and above, total</t>
-  </si>
-  <si>
-    <t>Age population, age 0, female, interpolated</t>
-  </si>
-  <si>
     <t>Female population 40-44</t>
   </si>
   <si>
     <t>Age population, age 0, male, interpolated</t>
   </si>
   <si>
+    <t>Age population, age 11, female, interpolated</t>
+  </si>
+  <si>
+    <t>Population ages 65 and above, male</t>
+  </si>
+  <si>
+    <t>Female population 35-39</t>
+  </si>
+  <si>
+    <t>Age population, age 10, female, interpolated</t>
+  </si>
+  <si>
     <t>Ratio of female to male labor force participation rate (%) (modeled ILO estimate)</t>
   </si>
   <si>
-    <t>Age population, age 11, female, interpolated</t>
-  </si>
-  <si>
-    <t>Population ages 65 and above, male</t>
-  </si>
-  <si>
-    <t>Female population 35-39</t>
+    <t>Female population 05-09</t>
+  </si>
+  <si>
+    <t>Male population 65-69</t>
+  </si>
+  <si>
+    <t>Age population, age 05, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 04, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 06, female, interpolated</t>
   </si>
   <si>
     <t>Immunization, measles (% of children ages 12-23 months)</t>
   </si>
   <si>
-    <t>Age population, age 10, female, interpolated</t>
-  </si>
-  <si>
-    <t>Female population 05-09</t>
-  </si>
-  <si>
-    <t>Male population 65-69</t>
-  </si>
-  <si>
-    <t>Age population, age 05, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 04, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 06, female, interpolated</t>
-  </si>
-  <si>
     <t>Age population, age 03, female, interpolated</t>
   </si>
   <si>
@@ -652,96 +652,99 @@
     <t>Age population, age 01, male, interpolated</t>
   </si>
   <si>
+    <t>Age population, age 03, male, interpolated</t>
+  </si>
+  <si>
+    <t>Male population 45-49</t>
+  </si>
+  <si>
+    <t>Age population, age 04, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 01, female, interpolated</t>
+  </si>
+  <si>
+    <t>Male population 35-39</t>
+  </si>
+  <si>
+    <t>Female population 00-04</t>
+  </si>
+  <si>
+    <t>Age population, age 02, male, interpolated</t>
+  </si>
+  <si>
+    <t>Male population 00-04</t>
+  </si>
+  <si>
+    <t>Children out of school, primary, female</t>
+  </si>
+  <si>
+    <t>Population ages 0-14, male</t>
+  </si>
+  <si>
+    <t>Male population 30-34</t>
+  </si>
+  <si>
+    <t>Population ages 00-14, total</t>
+  </si>
+  <si>
+    <t>Population ages 0-14, female</t>
+  </si>
+  <si>
+    <t>Male population 40-44</t>
+  </si>
+  <si>
+    <t>Male population 80+</t>
+  </si>
+  <si>
     <t>Immunization, Pol3 (% of one-year-old children)</t>
   </si>
   <si>
-    <t>Age population, age 03, male, interpolated</t>
-  </si>
-  <si>
-    <t>Male population 45-49</t>
-  </si>
-  <si>
-    <t>Age population, age 04, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 01, female, interpolated</t>
-  </si>
-  <si>
-    <t>Male population 35-39</t>
-  </si>
-  <si>
-    <t>Female population 00-04</t>
-  </si>
-  <si>
-    <t>Age population, age 02, male, interpolated</t>
-  </si>
-  <si>
-    <t>Male population 00-04</t>
-  </si>
-  <si>
-    <t>Population ages 0-14, male</t>
-  </si>
-  <si>
-    <t>Male population 30-34</t>
-  </si>
-  <si>
-    <t>Population ages 00-14, total</t>
-  </si>
-  <si>
-    <t>Population ages 0-14, female</t>
-  </si>
-  <si>
-    <t>Male population 40-44</t>
-  </si>
-  <si>
-    <t>Children out of school, primary, female</t>
-  </si>
-  <si>
-    <t>Male population 80+</t>
+    <t>Female population 80+</t>
   </si>
   <si>
     <t>Newborns protected against tetanus (%)</t>
   </si>
   <si>
-    <t>Female population 80+</t>
+    <t>Antiretroviral therapy coverage (% of people living with HIV)</t>
   </si>
   <si>
     <t>Children out of school, primary, male</t>
   </si>
   <si>
-    <t>Antiretroviral therapy coverage (% of people living with HIV)</t>
+    <t>Immunization, DPT (% of children ages 12-23 months)</t>
+  </si>
+  <si>
+    <t>Children (ages 0-14) newly infected with HIV</t>
+  </si>
+  <si>
+    <t>Male population 60-64</t>
+  </si>
+  <si>
+    <t>Male population 55-59</t>
   </si>
   <si>
     <t>Access to anti-retroviral drugs, male (%)</t>
   </si>
   <si>
-    <t>Children (ages 0-14) newly infected with HIV</t>
-  </si>
-  <si>
-    <t>Male population 60-64</t>
-  </si>
-  <si>
-    <t>Immunization, DPT (% of children ages 12-23 months)</t>
-  </si>
-  <si>
-    <t>Male population 55-59</t>
+    <t>Net official development assistance received (current US$)</t>
   </si>
   <si>
     <t>Net official development assistance and official aid received (current US$)</t>
   </si>
   <si>
-    <t>Net official development assistance received (current US$)</t>
+    <t>Labor force participation rate for ages 15-24, female (%) (national estimate)</t>
   </si>
   <si>
     <t>Labor force participation rate for ages 15-24, male (%) (national estimate)</t>
   </si>
   <si>
-    <t>Labor force participation rate for ages 15-24, female (%) (national estimate)</t>
-  </si>
-  <si>
     <t>Ratio of female to male youth unemployment rate (%) (national estimate)</t>
   </si>
   <si>
+    <t>Employment to population ratio, 15+, male (%) (national estimate)</t>
+  </si>
+  <si>
     <t>Employment to population ratio, ages 15-24, male (%) (national estimate)</t>
   </si>
   <si>
@@ -751,16 +754,16 @@
     <t>Employment to population ratio, ages 15-24, female (%) (national estimate)</t>
   </si>
   <si>
-    <t>Employment to population ratio, 15+, male (%) (national estimate)</t>
+    <t>People using safely managed sanitation services, urban  (% of urban population)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, 15+, female (%) (national estimate)</t>
   </si>
   <si>
     <t>Net ODA received per capita (current US$)</t>
   </si>
   <si>
-    <t>People using safely managed sanitation services, urban  (% of urban population)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, 15+, female (%) (national estimate)</t>
+    <t>Employment in agriculture, male (% of male employment)</t>
   </si>
   <si>
     <t>Unemployment, male (% of male labor force) (modeled ILO estimate)</t>
@@ -769,9 +772,6 @@
     <t>Unemployment, male (% of male labor force)</t>
   </si>
   <si>
-    <t>Employment in agriculture, male (% of male employment)</t>
-  </si>
-  <si>
     <t>Employment to population ratio, 15+, total (%) (national estimate)</t>
   </si>
   <si>
@@ -784,46 +784,52 @@
     <t>Poverty headcount ratio at national poverty line (% of population)</t>
   </si>
   <si>
+    <t>Ratio of female to male labor force participation rate (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate, female (% of female population ages 15+) (national estimate)</t>
+  </si>
+  <si>
     <t>Net intake rate in grade 1, male (% of official school-age population)</t>
   </si>
   <si>
+    <t>Labor force participation rate, male (% of male population ages 15+) (national estimate)</t>
+  </si>
+  <si>
     <t>GNI, Atlas method (current US$)</t>
   </si>
   <si>
+    <t>Labor force with intermediate education, male (% of male working-age population with intermediate education)</t>
+  </si>
+  <si>
+    <t>Labor force with advanced education, female (% of female working-age population with advanced education)</t>
+  </si>
+  <si>
+    <t>Labor force with intermediate education, female (% of female working-age population with intermediate education)</t>
+  </si>
+  <si>
+    <t>Labor force with basic education, female (% of female working-age population with basic education)</t>
+  </si>
+  <si>
+    <t>Labor force with basic education, male (% of male working-age population with basic education)</t>
+  </si>
+  <si>
     <t>Physicians (per 1,000 people)</t>
   </si>
   <si>
-    <t>Ratio of female to male labor force participation rate (%) (national estimate)</t>
-  </si>
-  <si>
     <t>Employment to population ratio, 15+, total (%) (modeled ILO estimate)</t>
   </si>
   <si>
-    <t>Labor force participation rate, female (% of female population ages 15+) (national estimate)</t>
-  </si>
-  <si>
-    <t>Labor force with intermediate education, female (% of female working-age population with intermediate education)</t>
-  </si>
-  <si>
-    <t>Labor force with basic education, male (% of male working-age population with basic education)</t>
-  </si>
-  <si>
-    <t>Labor force with advanced education, female (% of female working-age population with advanced education)</t>
-  </si>
-  <si>
-    <t>Labor force with basic education, female (% of female working-age population with basic education)</t>
-  </si>
-  <si>
-    <t>Labor force with intermediate education, male (% of male working-age population with intermediate education)</t>
-  </si>
-  <si>
-    <t>Labor force participation rate, male (% of male population ages 15+) (national estimate)</t>
+    <t>Energy use (kg of oil equivalent) per $1,000 GDP (constant 2011 PPP)</t>
   </si>
   <si>
     <t>Rural poverty headcount ratio at national poverty lines (% of rural population)</t>
   </si>
   <si>
-    <t>Energy use (kg of oil equivalent) per $1,000 GDP (constant 2011 PPP)</t>
+    <t>Unemployment, youth female (% of female labor force ages 15-24) (national estimate)</t>
+  </si>
+  <si>
+    <t>Unemployment, youth male (% of male labor force ages 15-24) (national estimate)</t>
   </si>
   <si>
     <t>Adjusted net enrollment rate, primary (% of primary school age children)</t>
@@ -832,52 +838,49 @@
     <t>School enrollment, primary (% net)</t>
   </si>
   <si>
-    <t>Unemployment, youth male (% of male labor force ages 15-24) (national estimate)</t>
-  </si>
-  <si>
-    <t>Unemployment, youth female (% of female labor force ages 15-24) (national estimate)</t>
+    <t>Employment to population ratio, ages 15-24, female (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Health expenditure, total (current US$)</t>
   </si>
   <si>
     <t>Net intake rate in grade 1, female (% of official school-age population)</t>
   </si>
   <si>
-    <t>Employment to population ratio, ages 15-24, female (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
     <t>Urban poverty headcount ratio at national poverty lines (% of urban population)</t>
   </si>
   <si>
-    <t>Health expenditure, total (current US$)</t>
-  </si>
-  <si>
     <t>GDP (current US$)</t>
   </si>
   <si>
+    <t>Employment in agriculture, female (% of female employment)</t>
+  </si>
+  <si>
     <t>Employment in industry, female (% of female employment)</t>
   </si>
   <si>
-    <t>Employment in agriculture, female (% of female employment)</t>
-  </si>
-  <si>
     <t>Employment in industry, male (% of male employment)</t>
   </si>
   <si>
+    <t>Wage and salaried workers, female (% of female employment)</t>
+  </si>
+  <si>
     <t>Vulnerable employment, female (% of female employment)</t>
   </si>
   <si>
-    <t>Wage and salaried workers, female (% of female employment)</t>
-  </si>
-  <si>
     <t>Vulnerable employment, male (% of male employment)</t>
   </si>
   <si>
     <t>Labor force with advanced education, male (% of male working-age population with advanced education)</t>
   </si>
   <si>
+    <t>Contributing family workers, male (% of male employment)</t>
+  </si>
+  <si>
     <t>Contributing family workers, female (% of female employment)</t>
   </si>
   <si>
-    <t>Contributing family workers, male (% of male employment)</t>
+    <t>CO2 emissions (kt)</t>
   </si>
   <si>
     <t>Antiretroviral therapy coverage for PMTCT (% of pregnant women living with HIV)</t>
@@ -889,31 +892,31 @@
     <t>Time-related underemployment, male (% of employment)</t>
   </si>
   <si>
-    <t>CO2 emissions (kt)</t>
+    <t>Share of women in wage employment in the nonagricultural sector (% of total nonagricultural employment)</t>
   </si>
   <si>
     <t>Share of women employed in the nonagricultural sector (% of total nonagricultural employment)</t>
   </si>
   <si>
-    <t>Share of women in wage employment in the nonagricultural sector (% of total nonagricultural employment)</t>
-  </si>
-  <si>
     <t>Employment in services, male (% of male employment)</t>
   </si>
   <si>
+    <t>Unemployment, male (% of male labor force) (national estimate)</t>
+  </si>
+  <si>
+    <t>Unemployment, female (% of female labor force) (national estimate)</t>
+  </si>
+  <si>
     <t>Vulnerable employment, total (% of total employment)</t>
   </si>
   <si>
-    <t>Unemployment, male (% of male labor force) (national estimate)</t>
-  </si>
-  <si>
-    <t>Unemployment, female (% of female labor force) (national estimate)</t>
+    <t>Employment in services, female (% of female employment)</t>
   </si>
   <si>
     <t>Contributing family workers, total (% of total employment)</t>
   </si>
   <si>
-    <t>Employment in services, female (% of female employment)</t>
+    <t>Own-account workers, female (% of females employed)</t>
   </si>
   <si>
     <t>Employment to population ratio, 15+, female (%) (modeled ILO estimate)</t>
@@ -922,49 +925,52 @@
     <t>Forest area (sq. km)</t>
   </si>
   <si>
-    <t>Own-account workers, female (% of females employed)</t>
-  </si>
-  <si>
     <t>Wage and salaried workers, male (% of male employment)</t>
   </si>
   <si>
     <t>Employers, male (% of male employment)</t>
   </si>
   <si>
+    <t>Employers, female (% of female employment)</t>
+  </si>
+  <si>
     <t>Own-account workers, male (% of males employed)</t>
   </si>
   <si>
-    <t>Employers, female (% of female employment)</t>
-  </si>
-  <si>
     <t>Rural poverty gap at national poverty lines (%)</t>
   </si>
   <si>
+    <t>Adjusted net enrollment rate, primary, male (% of primary school age children)</t>
+  </si>
+  <si>
+    <t>Adjusted net enrollment rate, primary, female (% of primary school age children)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary, male (% net)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary, female (% net)</t>
+  </si>
+  <si>
     <t>Poverty gap at national poverty lines (%)</t>
   </si>
   <si>
-    <t>Adjusted net enrollment rate, primary, male (% of primary school age children)</t>
-  </si>
-  <si>
-    <t>Adjusted net enrollment rate, primary, female (% of primary school age children)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary, male (% net)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary, female (% net)</t>
-  </si>
-  <si>
     <t>Tuberculosis treatment success rate (% of new cases)</t>
   </si>
   <si>
+    <t>Contraceptive prevalence, any methods (% of women ages 15-49)</t>
+  </si>
+  <si>
+    <t>Agricultural support estimate (% of GDP)</t>
+  </si>
+  <si>
     <t>People using safely managed sanitation services (% of population)</t>
   </si>
   <si>
-    <t>Agricultural support estimate (% of GDP)</t>
-  </si>
-  <si>
-    <t>Contraceptive prevalence, any methods (% of women ages 15-49)</t>
+    <t>Informal employment, male (% of total non-agricultural employment)</t>
+  </si>
+  <si>
+    <t>Informal employment, female (% of total non-agricultural employment)</t>
   </si>
   <si>
     <t>Gross graduation ratio, tertiary, female (%)</t>
@@ -973,12 +979,6 @@
     <t>Gross graduation ratio, tertiary, male (%)</t>
   </si>
   <si>
-    <t>Informal employment, male (% of total non-agricultural employment)</t>
-  </si>
-  <si>
-    <t>Informal employment, female (% of total non-agricultural employment)</t>
-  </si>
-  <si>
     <t>Urban poverty gap at national poverty lines (%)</t>
   </si>
   <si>
@@ -994,105 +994,105 @@
     <t>Nurses and midwives (per 1,000 people)</t>
   </si>
   <si>
+    <t>Status under enhanced HIPC initiative</t>
+  </si>
+  <si>
+    <t>Progression to secondary school, male (%)</t>
+  </si>
+  <si>
+    <t>Prevalence of overweight, male (% of male adults)</t>
+  </si>
+  <si>
+    <t>Educational attainment, no schooling, population 25+ years, male (%)</t>
+  </si>
+  <si>
+    <t>Educational attainment, no schooling, population 25+ years, female (%)</t>
+  </si>
+  <si>
     <t>School enrollment, primary, male (% gross)</t>
   </si>
   <si>
-    <t>Status under enhanced HIPC initiative</t>
-  </si>
-  <si>
-    <t>Educational attainment, no schooling, population 25+ years, male (%)</t>
-  </si>
-  <si>
-    <t>Educational attainment, no schooling, population 25+ years, female (%)</t>
-  </si>
-  <si>
-    <t>Progression to secondary school, male (%)</t>
+    <t>Progression to secondary school, female (%)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed primary, population 25+ years, male (%)</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed primary, population 25+ years, female (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed upper secondary, population 25+ years, male (%)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed upper secondary, population 25+ years, female (%)</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed lower secondary, population 25+, female (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed lower secondary, population 25+, male (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed primary, population 25+ years, male (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed primary, population 25+ years, female (%)</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed short-cycle tertiary, population 25+, female (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed upper secondary, population 25+, female (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed upper secondary, population 25+, male (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed Bachelor's or equivalent, population 25+ years, female (%)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed Bachelor's or equivalent, population 25+ years, male (%)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed lower secondary, population 25+ years, female (%)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed lower secondary, population 25+ years, male (%)</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed short-cycle tertiary, population 25+, male (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Educational attainment, some primary, population 25+ years, male (%)</t>
+  </si>
+  <si>
+    <t>Educational attainment, some primary, population 25+ years, female (%)</t>
+  </si>
+  <si>
+    <t>Educational attainment, some primary, population 25+ years, total (%)</t>
+  </si>
+  <si>
+    <t>GDP growth (annual %)</t>
+  </si>
+  <si>
+    <t>Prevalence of syphilis (% of women attending antenatal care)</t>
   </si>
   <si>
     <t>School enrollment, primary (% gross)</t>
   </si>
   <si>
-    <t>Prevalence of overweight, male (% of male adults)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed primary, population 25+ years, female (%)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed upper secondary, population 25+ years, male (%)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed upper secondary, population 25+ years, female (%)</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed lower secondary, population 25+, female (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed lower secondary, population 25+, male (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed primary, population 25+ years, female (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed primary, population 25+ years, male (%)</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed short-cycle tertiary, population 25+, female (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed short-cycle tertiary, population 25+, male (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed upper secondary, population 25+, female (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed upper secondary, population 25+, male (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed Bachelor's or equivalent, population 25+ years, female (%)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed Bachelor's or equivalent, population 25+ years, male (%)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed lower secondary, population 25+ years, female (%)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed lower secondary, population 25+ years, male (%)</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed primary, population 25+ years, male (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>Educational attainment, some primary, population 25+ years, male (%)</t>
-  </si>
-  <si>
-    <t>Educational attainment, some primary, population 25+ years, female (%)</t>
-  </si>
-  <si>
-    <t>Educational attainment, some primary, population 25+ years, total (%)</t>
-  </si>
-  <si>
-    <t>Progression to secondary school, female (%)</t>
-  </si>
-  <si>
-    <t>GDP growth (annual %)</t>
-  </si>
-  <si>
     <t>School enrollment, primary, female (% gross)</t>
   </si>
   <si>
-    <t>Prevalence of syphilis (% of women attending antenatal care)</t>
+    <t>GDP per unit of energy use (constant 2011 PPP $ per kg of oil equivalent)</t>
+  </si>
+  <si>
+    <t>Persistence to last grade of primary, male (% of cohort)</t>
   </si>
   <si>
     <t>School enrollment, secondary, female (% gross)</t>
   </si>
   <si>
-    <t>Persistence to last grade of primary, male (% of cohort)</t>
-  </si>
-  <si>
-    <t>GDP per unit of energy use (constant 2011 PPP $ per kg of oil equivalent)</t>
-  </si>
-  <si>
     <t>Persistence to last grade of primary, female (% of cohort)</t>
   </si>
   <si>
@@ -1105,31 +1105,40 @@
     <t>School enrollment, secondary (% gross)</t>
   </si>
   <si>
+    <t>Female share of employment in senior and middle management (%)</t>
+  </si>
+  <si>
     <t>Maternal mortality ratio (modeled estimate, per 100,000 live births)</t>
   </si>
   <si>
+    <t>School enrollment, tertiary, female (% gross)</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary, male (% gross)</t>
+  </si>
+  <si>
+    <t>Survival to age 65, male (% of cohort)</t>
+  </si>
+  <si>
     <t>People using safely managed drinking water services, urban (% of urban population)</t>
   </si>
   <si>
-    <t>School enrollment, secondary, male (% gross)</t>
-  </si>
-  <si>
-    <t>Female share of employment in senior and middle management (%)</t>
+    <t>School enrollment, primary (gross), gender parity index (GPI)</t>
   </si>
   <si>
     <t>Primary education, pupils (% female)</t>
   </si>
   <si>
-    <t>School enrollment, primary (gross), gender parity index (GPI)</t>
-  </si>
-  <si>
-    <t>School enrollment, tertiary, female (% gross)</t>
-  </si>
-  <si>
     <t>Out-of-pocket health expenditure (% of private expenditure on health)</t>
   </si>
   <si>
-    <t>Survival to age 65, male (% of cohort)</t>
+    <t>School enrollment, tertiary (% gross)</t>
+  </si>
+  <si>
+    <t>Incidence of tuberculosis (per 100,000 people)</t>
+  </si>
+  <si>
+    <t>Births attended by skilled health staff (% of total)</t>
   </si>
   <si>
     <t>People using safely managed drinking water services, rural (% of rural population)</t>
@@ -1138,195 +1147,186 @@
     <t>Immunization, Hib3 (% of children ages 12-23 months)</t>
   </si>
   <si>
-    <t>School enrollment, tertiary (% gross)</t>
-  </si>
-  <si>
-    <t>Births attended by skilled health staff (% of total)</t>
-  </si>
-  <si>
-    <t>Incidence of tuberculosis (per 100,000 people)</t>
+    <t>Health expenditure, public (% of government expenditure)</t>
+  </si>
+  <si>
+    <t>Literacy rate, adult male (% of males ages 15 and above)</t>
+  </si>
+  <si>
+    <t>Literacy rate, youth female (% of females ages 15-24)</t>
+  </si>
+  <si>
+    <t>Literacy rate, youth total (% of people ages 15-24)</t>
+  </si>
+  <si>
+    <t>Literacy rate, adult total (% of people ages 15 and above)</t>
+  </si>
+  <si>
+    <t>Literacy rate, youth male (% of males ages 15-24)</t>
+  </si>
+  <si>
+    <t>Literacy rate, youth (ages 15-24), gender parity index (GPI)</t>
+  </si>
+  <si>
+    <t>Ratio of young literate females to males (% ages 15-24)</t>
+  </si>
+  <si>
+    <t>Literacy rate, adult female (% of females ages 15 and above)</t>
   </si>
   <si>
     <t>Immunization, HepB3 (% of one-year-old children)</t>
   </si>
   <si>
-    <t>Literacy rate, adult male (% of males ages 15 and above)</t>
-  </si>
-  <si>
-    <t>Literacy rate, youth (ages 15-24), gender parity index (GPI)</t>
-  </si>
-  <si>
-    <t>Literacy rate, adult female (% of females ages 15 and above)</t>
-  </si>
-  <si>
-    <t>Literacy rate, youth female (% of females ages 15-24)</t>
-  </si>
-  <si>
-    <t>Literacy rate, youth male (% of males ages 15-24)</t>
-  </si>
-  <si>
-    <t>Literacy rate, youth total (% of people ages 15-24)</t>
-  </si>
-  <si>
-    <t>Ratio of young literate females to males (% ages 15-24)</t>
-  </si>
-  <si>
-    <t>Literacy rate, adult total (% of people ages 15 and above)</t>
-  </si>
-  <si>
-    <t>Health expenditure, public (% of government expenditure)</t>
+    <t>School enrollment, tertiary, male (% gross)</t>
   </si>
   <si>
     <t>Persistence to last grade of primary, total (% of cohort)</t>
   </si>
   <si>
-    <t>School enrollment, tertiary, male (% gross)</t>
-  </si>
-  <si>
     <t>Prevalence of obesity, male (% of male population ages 18+)</t>
   </si>
   <si>
     <t>Prevalence of overweight, female (% of female adults)</t>
   </si>
   <si>
+    <t>Prevalence of obesity, female (% of female population ages 18+)</t>
+  </si>
+  <si>
     <t>Government expenditure per student, primary (% of GDP per capita)</t>
   </si>
   <si>
-    <t>Prevalence of obesity, female (% of female population ages 18+)</t>
+    <t>School enrollment, tertiary (gross), gender parity index (GPI)</t>
+  </si>
+  <si>
+    <t>Improved sanitation facilities, rural (% of rural population with access)</t>
   </si>
   <si>
     <t>External resources for health (% of total expenditure on health)</t>
   </si>
   <si>
-    <t>School enrollment, tertiary (gross), gender parity index (GPI)</t>
-  </si>
-  <si>
-    <t>Improved sanitation facilities, rural (% of rural population with access)</t>
+    <t>Health expenditure, private (% of GDP)</t>
+  </si>
+  <si>
+    <t>CO2 emissions (metric tons per capita)</t>
   </si>
   <si>
     <t>CO2 emissions (kg per PPP $ of GDP)</t>
   </si>
   <si>
-    <t>Health expenditure, private (% of GDP)</t>
-  </si>
-  <si>
-    <t>CO2 emissions (metric tons per capita)</t>
-  </si>
-  <si>
     <t>Health expenditure, public (% of GDP)</t>
   </si>
   <si>
     <t>Health expenditure, total (% of GDP)</t>
   </si>
   <si>
+    <t>Income share held by lowest 20%</t>
+  </si>
+  <si>
+    <t>Poverty headcount ratio at $1.90 a day (2011 PPP) (% of population)</t>
+  </si>
+  <si>
+    <t>GINI index (World Bank estimate)</t>
+  </si>
+  <si>
+    <t>Poverty gap at $1.90 a day (2011 PPP) (%)</t>
+  </si>
+  <si>
+    <t>Vitamin A supplementation coverage rate (% of children ages 6-59 months)</t>
+  </si>
+  <si>
+    <t>Secondary education, teachers (% female)</t>
+  </si>
+  <si>
+    <t>Start-up procedures to register a business, female (number)</t>
+  </si>
+  <si>
+    <t>Expected years of schooling, male</t>
+  </si>
+  <si>
+    <t>Expected years of schooling, female</t>
+  </si>
+  <si>
+    <t>Government expenditure per student, secondary (% of GDP per capita)</t>
+  </si>
+  <si>
+    <t>Start-up procedures to register a business, male (number)</t>
+  </si>
+  <si>
     <t>School enrollment, secondary, female (% net)</t>
   </si>
   <si>
-    <t>Secondary education, teachers (% female)</t>
-  </si>
-  <si>
-    <t>Vitamin A supplementation coverage rate (% of children ages 6-59 months)</t>
-  </si>
-  <si>
-    <t>Government expenditure per student, secondary (% of GDP per capita)</t>
+    <t>Improved sanitation facilities (% of population with access)</t>
+  </si>
+  <si>
+    <t>Sex ratio at birth (male births per female births)</t>
   </si>
   <si>
     <t>School enrollment, secondary (% net)</t>
   </si>
   <si>
-    <t>Income share held by lowest 20%</t>
-  </si>
-  <si>
-    <t>Poverty gap at $1.90 a day (2011 PPP) (%)</t>
-  </si>
-  <si>
-    <t>GINI index (World Bank estimate)</t>
-  </si>
-  <si>
-    <t>Poverty headcount ratio at $1.90 a day (2011 PPP) (% of population)</t>
+    <t>Secondary education, pupils (% female)</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary (gross), gender parity index (GPI)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary and secondary (gross), gender parity index (GPI)</t>
   </si>
   <si>
     <t>School enrollment, secondary, male (% net)</t>
   </si>
   <si>
-    <t>Start-up procedures to register a business, male (number)</t>
-  </si>
-  <si>
-    <t>Sex ratio at birth (male births per female births)</t>
-  </si>
-  <si>
-    <t>Expected years of schooling, female</t>
-  </si>
-  <si>
-    <t>Expected years of schooling, male</t>
-  </si>
-  <si>
-    <t>Secondary education, pupils (% female)</t>
-  </si>
-  <si>
-    <t>School enrollment, secondary (gross), gender parity index (GPI)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary and secondary (gross), gender parity index (GPI)</t>
-  </si>
-  <si>
-    <t>Start-up procedures to register a business, female (number)</t>
-  </si>
-  <si>
-    <t>Improved sanitation facilities (% of population with access)</t>
+    <t>Proportion of women in ministerial level positions (%)</t>
+  </si>
+  <si>
+    <t>People using basic drinking water services, rural (% of rural population)</t>
+  </si>
+  <si>
+    <t>Government expenditure on education, total (% of GDP)</t>
   </si>
   <si>
     <t>Public spending on education, total (% of GDP)</t>
   </si>
   <si>
-    <t>Government expenditure on education, total (% of GDP)</t>
-  </si>
-  <si>
-    <t>Proportion of women in ministerial level positions (%)</t>
+    <t>Health expenditure, private (% of total health expenditure)</t>
+  </si>
+  <si>
+    <t>Gross graduation ratio, primary, male (%)</t>
   </si>
   <si>
     <t>Hospital beds (per 1,000 people)</t>
   </si>
   <si>
-    <t>Health expenditure, private (% of total health expenditure)</t>
+    <t>Gross graduation ratio, primary, female (%)</t>
+  </si>
+  <si>
+    <t>Primary education, teachers (% female)</t>
+  </si>
+  <si>
+    <t>Health expenditure, public (% of total health expenditure)</t>
   </si>
   <si>
     <t>Lower secondary completion rate, male (% of relevant age group)</t>
   </si>
   <si>
-    <t>Primary education, teachers (% female)</t>
-  </si>
-  <si>
-    <t>People using basic drinking water services, rural (% of rural population)</t>
-  </si>
-  <si>
-    <t>Health expenditure, public (% of total health expenditure)</t>
-  </si>
-  <si>
-    <t>Gross graduation ratio, primary, male (%)</t>
-  </si>
-  <si>
-    <t>Gross graduation ratio, primary, female (%)</t>
-  </si>
-  <si>
     <t>Out-of-pocket health expenditure (% of total expenditure on health)</t>
   </si>
   <si>
     <t>People using basic sanitation services, rural (% of rural population)</t>
   </si>
   <si>
+    <t>People using safely managed drinking water services (% of population)</t>
+  </si>
+  <si>
+    <t>Tertiary education, academic staff (% female)</t>
+  </si>
+  <si>
+    <t>Maternal mortality ratio (national estimate, per 100,000 live births)</t>
+  </si>
+  <si>
     <t>Lower secondary completion rate, female (% of relevant age group)</t>
   </si>
   <si>
-    <t>People using safely managed drinking water services (% of population)</t>
-  </si>
-  <si>
-    <t>Tertiary education, academic staff (% female)</t>
-  </si>
-  <si>
-    <t>Maternal mortality ratio (national estimate, per 100,000 live births)</t>
-  </si>
-  <si>
     <t>Children in employment, male (% of male children ages 7-14)</t>
   </si>
   <si>
@@ -1339,19 +1339,19 @@
     <t>Survival to age 65, female (% of cohort)</t>
   </si>
   <si>
+    <t>Total debt service (% of exports of goods, services and primary income)</t>
+  </si>
+  <si>
     <t>People using basic sanitation services (% of population)</t>
   </si>
   <si>
-    <t>Total debt service (% of exports of goods, services and primary income)</t>
-  </si>
-  <si>
-    <t>Primary completion rate, male (% of relevant age group)</t>
+    <t>Adolescent fertility rate (births per 1,000 women ages 15-19)</t>
+  </si>
+  <si>
+    <t>Reion_sub_code</t>
   </si>
   <si>
     <t>Region_code</t>
-  </si>
-  <si>
-    <t>Reion_sub_code</t>
   </si>
 </sst>
 </file>
@@ -1725,7 +1725,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.494797435593348</v>
+        <v>1.494333836692249</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1733,7 +1733,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.494797435593348</v>
+        <v>1.494333836692249</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1741,7 +1741,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.444890390133597</v>
+        <v>1.446264375756864</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1749,7 +1749,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.439780532219449</v>
+        <v>1.443189709861488</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1757,7 +1757,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.381072939878876</v>
+        <v>1.37769283783806</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1765,7 +1765,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.3575985130547</v>
+        <v>1.356046642306401</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1781,7 +1781,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.308371008210902</v>
+        <v>1.308578841679088</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1797,7 +1797,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.30735022523251</v>
+        <v>1.306020480961136</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1805,7 +1805,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.300340600694742</v>
+        <v>1.299936689130116</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1821,7 +1821,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.27349230569786</v>
+        <v>1.273534822704663</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1829,7 +1829,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.267098165463494</v>
+        <v>1.26531245117778</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1837,7 +1837,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.266734514729045</v>
+        <v>1.264718822088352</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1861,7 +1861,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.263306864397339</v>
+        <v>1.25816230657421</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -1869,7 +1869,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.238827245697403</v>
+        <v>1.237251825994329</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -1877,7 +1877,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.237251825994329</v>
+        <v>1.236394987025971</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -1885,7 +1885,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.235931165133578</v>
+        <v>1.235255817125975</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -1901,7 +1901,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.222679580826994</v>
+        <v>1.224178082325496</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -1917,7 +1917,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>1.209553887688875</v>
+        <v>1.208051620115179</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -1925,7 +1925,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>1.205365562855076</v>
+        <v>1.206994217430128</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -1933,7 +1933,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>1.205056369366294</v>
+        <v>1.205694124468335</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -1941,7 +1941,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>1.204018026953937</v>
+        <v>1.201411913831071</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -1949,7 +1949,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>1.202007151926308</v>
+        <v>1.199661197775711</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -1957,7 +1957,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>1.189917686190524</v>
+        <v>1.189508460000048</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -1965,7 +1965,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>1.189220715230251</v>
+        <v>1.18612657218276</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -1973,7 +1973,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>1.18315038170657</v>
+        <v>1.185202858087394</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -1981,7 +1981,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>1.178622786152133</v>
+        <v>1.178193527910374</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -1989,7 +1989,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>1.160544528031824</v>
+        <v>1.157409620162627</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -1997,7 +1997,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>1.158408769822492</v>
+        <v>1.156601075650872</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -2005,7 +2005,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>1.146985921885992</v>
+        <v>1.150841441366512</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -2013,7 +2013,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>1.138760113339425</v>
+        <v>1.138511730673828</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -2021,7 +2021,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>1.129741394796934</v>
+        <v>1.129108954320743</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -2029,7 +2029,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>1.115018891232602</v>
+        <v>1.122543620449938</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -2037,7 +2037,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>1.113874736722082</v>
+        <v>1.114423653137364</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -2045,7 +2045,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>1.097899061340429</v>
+        <v>1.113874736722082</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -2053,7 +2053,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>1.097115332812799</v>
+        <v>1.101867315308684</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -2069,7 +2069,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>1.080942743594596</v>
+        <v>1.081736394388248</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -2077,7 +2077,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>1.079068853774912</v>
+        <v>1.077793343570831</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -2085,7 +2085,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>1.074146455838076</v>
+        <v>1.072380492193424</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -2093,7 +2093,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>1.072850417005454</v>
+        <v>1.070575027266648</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -2101,7 +2101,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>1.062996422445715</v>
+        <v>1.065972612921906</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -2109,7 +2109,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>1.062820992910594</v>
+        <v>1.060985675450276</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -2117,7 +2117,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>1.035356529192156</v>
+        <v>1.045549595902493</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -2125,7 +2125,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>1.029305942778384</v>
+        <v>1.01834657318653</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -2133,7 +2133,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>1.000801319292211</v>
+        <v>1.003068892988356</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -2141,7 +2141,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>0.9985566079627763</v>
+        <v>0.9973137975821742</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -2149,7 +2149,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>0.9961288714382266</v>
+        <v>0.9966866440165272</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -2157,7 +2157,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>0.9956945805244639</v>
+        <v>0.995766429391348</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -2165,7 +2165,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>0.994625115732914</v>
+        <v>0.9940298776376759</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -2173,7 +2173,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>0.994625115732914</v>
+        <v>0.9940298776376759</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -2189,7 +2189,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>0.9782586812086715</v>
+        <v>0.9752795044797213</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -2197,7 +2197,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>0.9673439782435349</v>
+        <v>0.9658454867642279</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -2221,7 +2221,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>0.9643580576815407</v>
+        <v>0.9650249581369743</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -2229,7 +2229,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>0.9579765423714544</v>
+        <v>0.9603769952500847</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -2237,7 +2237,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>0.9574008047738944</v>
+        <v>0.9558659142851367</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -2245,7 +2245,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>0.9558659142851367</v>
+        <v>0.9550056415680626</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -2253,7 +2253,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>0.955692454754876</v>
+        <v>0.9543428046857891</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -2261,7 +2261,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>0.9421651824500694</v>
+        <v>0.9429519385765532</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -2269,7 +2269,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>0.9407362820523111</v>
+        <v>0.9428152045435927</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -2277,7 +2277,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>0.9401827252648758</v>
+        <v>0.9405368628530004</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -2285,7 +2285,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>0.9308132437313672</v>
+        <v>0.9305900294456531</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -2293,7 +2293,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>0.9207587758492779</v>
+        <v>0.9175849925169781</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -2301,7 +2301,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>0.9206993971301793</v>
+        <v>0.9125649527663597</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -2309,7 +2309,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>0.9147970956235025</v>
+        <v>0.8881627144255679</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -2317,7 +2317,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>0.8881692893468796</v>
+        <v>0.8852224366790453</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -2349,7 +2349,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>0.83235247650624</v>
+        <v>0.8319273064382129</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -2365,7 +2365,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>0.7780305647877281</v>
+        <v>0.7922369181427145</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -2381,7 +2381,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>0.7660961544538984</v>
+        <v>0.7662990765318207</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -2389,7 +2389,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>0.7657734117204413</v>
+        <v>0.7660961544538984</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -2397,7 +2397,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>0.7498142270207744</v>
+        <v>0.7493849687790166</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -2405,7 +2405,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>0.7242774686665459</v>
+        <v>0.746594830243958</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -2413,7 +2413,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>0.7193167511801648</v>
+        <v>0.7242774686665459</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -2429,7 +2429,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>0.715763837795137</v>
+        <v>0.7168671472443937</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -2453,7 +2453,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>0.7020752233258569</v>
+        <v>0.6928161988017385</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -2461,7 +2461,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>0.6811794445026096</v>
+        <v>0.6806542344185766</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -2477,7 +2477,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>0.6738755527614742</v>
+        <v>0.6701630636167046</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -2485,7 +2485,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>0.6704757153415379</v>
+        <v>0.6698858087291764</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -2501,7 +2501,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>0.6615824696077492</v>
+        <v>0.6582564763217578</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -2509,7 +2509,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>0.6501226465403684</v>
+        <v>0.648411337016559</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -2525,7 +2525,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>0.6375094368970466</v>
+        <v>0.6387658144480675</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -2533,7 +2533,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>0.6365792936533086</v>
+        <v>0.6381464869110345</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -2541,7 +2541,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>0.6283671404073259</v>
+        <v>0.6253909499311356</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -2589,7 +2589,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>0.6050199228059072</v>
+        <v>0.6083149908331182</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -2597,7 +2597,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>0.6041430095406009</v>
+        <v>0.6079961132820979</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -2645,7 +2645,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>0.5914627980234461</v>
+        <v>0.5916513106767622</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -2653,7 +2653,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>0.5898967642838864</v>
+        <v>0.5914627980234461</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -2661,7 +2661,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>0.5892539139344022</v>
+        <v>0.5903056405192646</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -2669,7 +2669,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>0.5860425442766399</v>
+        <v>0.5892539139344022</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -2677,7 +2677,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>0.5831965024705195</v>
+        <v>0.5860425442766399</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -2733,7 +2733,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>0.5569093980576847</v>
+        <v>0.5597393493925349</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -2781,7 +2781,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>0.5475285758288915</v>
+        <v>0.5493591926111812</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -2789,7 +2789,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>0.5468081722030178</v>
+        <v>0.5480246075749231</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -2805,7 +2805,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>0.5388200202696249</v>
+        <v>0.5365211023804046</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -2821,7 +2821,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>0.5352455921763231</v>
+        <v>0.533936105957959</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -2853,7 +2853,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>0.5273911844087575</v>
+        <v>0.5286433033818241</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -2877,7 +2877,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>0.5207214143034022</v>
+        <v>0.5206753975306664</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -2893,7 +2893,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>0.5201501874466326</v>
+        <v>0.5196797624534315</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -2901,7 +2901,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>0.5196797624534315</v>
+        <v>0.5191384795637477</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -2925,7 +2925,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>0.5091089522272492</v>
+        <v>0.5079928807986778</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -2949,7 +2949,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>0.5010153923798595</v>
+        <v>0.5035739651510736</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -2957,7 +2957,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>0.500463979728917</v>
+        <v>0.5007519981620963</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -3053,7 +3053,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>0.4735991086922386</v>
+        <v>0.4727355066807069</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -3061,7 +3061,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>0.4729803835485005</v>
+        <v>0.4689625264056432</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -3069,7 +3069,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>0.4729803835485005</v>
+        <v>0.4689625264056432</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -3077,7 +3077,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>0.4727355066807069</v>
+        <v>0.4672213154556355</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -3093,7 +3093,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>0.4632585152464965</v>
+        <v>0.462456812468796</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -3101,7 +3101,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>0.4632585152464965</v>
+        <v>0.4612737417327877</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -3109,7 +3109,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>0.4632585152464965</v>
+        <v>0.4609123938418074</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -3117,7 +3117,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>0.4632585152464965</v>
+        <v>0.4605843069639428</v>
       </c>
     </row>
     <row r="177" spans="1:2">
@@ -3125,7 +3125,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>0.462456812468796</v>
+        <v>0.4605280508530107</v>
       </c>
     </row>
     <row r="178" spans="1:2">
@@ -3133,7 +3133,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>0.4612737417327877</v>
+        <v>0.4592914302488869</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -3141,7 +3141,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>0.4609123938418074</v>
+        <v>0.4592406581036397</v>
       </c>
     </row>
     <row r="180" spans="1:2">
@@ -3149,7 +3149,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>0.4605843069639428</v>
+        <v>0.4592406581036397</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -3157,7 +3157,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>0.4605280508530107</v>
+        <v>0.4592406581036397</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -3165,7 +3165,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>0.4592914302488869</v>
+        <v>0.4592406581036397</v>
       </c>
     </row>
     <row r="183" spans="1:2">
@@ -3189,7 +3189,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>0.4575245238340555</v>
+        <v>0.4574003884104385</v>
       </c>
     </row>
     <row r="186" spans="1:2">
@@ -3197,7 +3197,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>0.4574003884104385</v>
+        <v>0.4571554446121178</v>
       </c>
     </row>
     <row r="187" spans="1:2">
@@ -3205,7 +3205,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>0.4571554446121178</v>
+        <v>0.4570398539609115</v>
       </c>
     </row>
     <row r="188" spans="1:2">
@@ -3213,7 +3213,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>0.4570398539609115</v>
+        <v>0.4566831603348851</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -3221,7 +3221,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>0.4568097625642</v>
+        <v>0.4557884127229443</v>
       </c>
     </row>
     <row r="190" spans="1:2">
@@ -3229,7 +3229,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>0.4566831603348851</v>
+        <v>0.4549814994570898</v>
       </c>
     </row>
     <row r="191" spans="1:2">
@@ -3237,7 +3237,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>0.4549814994570898</v>
+        <v>0.4547764847254416</v>
       </c>
     </row>
     <row r="192" spans="1:2">
@@ -3245,7 +3245,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>0.4549182080814511</v>
+        <v>0.4535141095476223</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -3253,7 +3253,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>0.4535141095476223</v>
+        <v>0.4532923987970536</v>
       </c>
     </row>
     <row r="194" spans="1:2">
@@ -3261,7 +3261,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>0.4532923987970536</v>
+        <v>0.4503897206643044</v>
       </c>
     </row>
     <row r="195" spans="1:2">
@@ -3269,7 +3269,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>0.4503897206643044</v>
+        <v>0.4470102599582737</v>
       </c>
     </row>
     <row r="196" spans="1:2">
@@ -3357,7 +3357,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>0.4350116454622059</v>
+        <v>0.4340195819701425</v>
       </c>
     </row>
     <row r="207" spans="1:2">
@@ -3421,7 +3421,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>0.4227330069671842</v>
+        <v>0.4223673420510743</v>
       </c>
     </row>
     <row r="215" spans="1:2">
@@ -3429,7 +3429,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>0.4223673420510743</v>
+        <v>0.4212515234251237</v>
       </c>
     </row>
     <row r="216" spans="1:2">
@@ -3437,7 +3437,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>0.4212515234251237</v>
+        <v>0.4204153095649465</v>
       </c>
     </row>
     <row r="217" spans="1:2">
@@ -3445,7 +3445,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>0.4204153095649465</v>
+        <v>0.4203330774158203</v>
       </c>
     </row>
     <row r="218" spans="1:2">
@@ -3453,7 +3453,7 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>0.4203330774158203</v>
+        <v>0.4197701736593047</v>
       </c>
     </row>
     <row r="219" spans="1:2">
@@ -3461,7 +3461,7 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>0.4197701736593047</v>
+        <v>0.4138419920204359</v>
       </c>
     </row>
     <row r="220" spans="1:2">
@@ -3469,7 +3469,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>0.4138419920204359</v>
+        <v>0.4130540558552871</v>
       </c>
     </row>
     <row r="221" spans="1:2">
@@ -3477,7 +3477,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>0.4130540558552871</v>
+        <v>0.4109935247417675</v>
       </c>
     </row>
     <row r="222" spans="1:2">
@@ -3485,7 +3485,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>0.4109935247417675</v>
+        <v>0.410485477375665</v>
       </c>
     </row>
     <row r="223" spans="1:2">
@@ -3533,7 +3533,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>0.4011320967224081</v>
+        <v>0.3992896561409987</v>
       </c>
     </row>
     <row r="229" spans="1:2">
@@ -3541,7 +3541,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>0.3992896561409987</v>
+        <v>0.398618831054776</v>
       </c>
     </row>
     <row r="230" spans="1:2">
@@ -3549,7 +3549,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>0.3942776600640081</v>
+        <v>0.3930422258225594</v>
       </c>
     </row>
     <row r="231" spans="1:2">
@@ -3557,7 +3557,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>0.3930422258225594</v>
+        <v>0.393015326309635</v>
       </c>
     </row>
     <row r="232" spans="1:2">
@@ -3565,7 +3565,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>0.3879326715398139</v>
+        <v>0.3806613909069521</v>
       </c>
     </row>
     <row r="233" spans="1:2">
@@ -3573,7 +3573,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>0.3823062712285505</v>
+        <v>0.3803497939018279</v>
       </c>
     </row>
     <row r="234" spans="1:2">
@@ -3581,7 +3581,7 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>0.3771495394369069</v>
+        <v>0.3768342144323751</v>
       </c>
     </row>
     <row r="235" spans="1:2">
@@ -3589,7 +3589,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>0.3740377143158484</v>
+        <v>0.3743604570493047</v>
       </c>
     </row>
     <row r="236" spans="1:2">
@@ -3605,7 +3605,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>0.3675830901346395</v>
+        <v>0.3628466939357631</v>
       </c>
     </row>
     <row r="238" spans="1:2">
@@ -3613,7 +3613,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>0.3628466939357631</v>
+        <v>0.3584623452211915</v>
       </c>
     </row>
     <row r="239" spans="1:2">
@@ -3621,7 +3621,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>0.3424881104967796</v>
+        <v>0.347281774174371</v>
       </c>
     </row>
     <row r="240" spans="1:2">
@@ -3629,7 +3629,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>0.3369051828303626</v>
+        <v>0.341356879453159</v>
       </c>
     </row>
     <row r="241" spans="1:2">
@@ -3661,7 +3661,7 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>0.2908662609894461</v>
+        <v>0.2950491339375136</v>
       </c>
     </row>
     <row r="245" spans="1:2">
@@ -3669,7 +3669,7 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>0.2906373232605082</v>
+        <v>0.2913622927354778</v>
       </c>
     </row>
     <row r="246" spans="1:2">
@@ -3677,7 +3677,7 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>0.2906373232605082</v>
+        <v>0.2911333550065398</v>
       </c>
     </row>
     <row r="247" spans="1:2">
@@ -3685,7 +3685,7 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>0.2898408006041804</v>
+        <v>0.2911333550065398</v>
       </c>
     </row>
     <row r="248" spans="1:2">
@@ -3693,7 +3693,7 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>0.2853879043580463</v>
+        <v>0.2869619081787553</v>
       </c>
     </row>
     <row r="249" spans="1:2">
@@ -3701,7 +3701,7 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>0.2810095272263744</v>
+        <v>0.2855369593972157</v>
       </c>
     </row>
     <row r="250" spans="1:2">
@@ -3709,7 +3709,7 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>0.2803286260638822</v>
+        <v>0.28425907095016</v>
       </c>
     </row>
     <row r="251" spans="1:2">
@@ -3717,7 +3717,7 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>0.2802467467284857</v>
+        <v>0.2833092290057369</v>
       </c>
     </row>
     <row r="252" spans="1:2">
@@ -3725,7 +3725,7 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>0.2802467467284857</v>
+        <v>0.2799278691774654</v>
       </c>
     </row>
     <row r="253" spans="1:2">
@@ -3733,7 +3733,7 @@
         <v>251</v>
       </c>
       <c r="B253">
-        <v>0.2781008956724034</v>
+        <v>0.2799278691774654</v>
       </c>
     </row>
     <row r="254" spans="1:2">
@@ -3741,7 +3741,7 @@
         <v>252</v>
       </c>
       <c r="B254">
-        <v>0.27380066137486</v>
+        <v>0.2777689153431138</v>
       </c>
     </row>
     <row r="255" spans="1:2">
@@ -3749,7 +3749,7 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>0.2706764172982554</v>
+        <v>0.2759675869072038</v>
       </c>
     </row>
     <row r="256" spans="1:2">
@@ -3757,7 +3757,7 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>0.268973667752533</v>
+        <v>0.2732253684328048</v>
       </c>
     </row>
     <row r="257" spans="1:2">
@@ -3765,7 +3765,7 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>0.268973667752533</v>
+        <v>0.2732253684328048</v>
       </c>
     </row>
     <row r="258" spans="1:2">
@@ -3773,7 +3773,7 @@
         <v>256</v>
       </c>
       <c r="B258">
-        <v>0.2683362918570686</v>
+        <v>0.2676559875962583</v>
       </c>
     </row>
     <row r="259" spans="1:2">
@@ -3781,7 +3781,7 @@
         <v>257</v>
       </c>
       <c r="B259">
-        <v>0.2647892410468919</v>
+        <v>0.2672006004578436</v>
       </c>
     </row>
     <row r="260" spans="1:2">
@@ -3789,7 +3789,7 @@
         <v>258</v>
       </c>
       <c r="B260">
-        <v>0.2622704709855157</v>
+        <v>0.2652474292347957</v>
       </c>
     </row>
     <row r="261" spans="1:2">
@@ -3797,7 +3797,7 @@
         <v>259</v>
       </c>
       <c r="B261">
-        <v>0.2621080632983337</v>
+        <v>0.2652390203712636</v>
       </c>
     </row>
     <row r="262" spans="1:2">
@@ -3805,7 +3805,7 @@
         <v>260</v>
       </c>
       <c r="B262">
-        <v>0.2618695763400045</v>
+        <v>0.2636731696183205</v>
       </c>
     </row>
     <row r="263" spans="1:2">
@@ -3813,7 +3813,7 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>0.2616526761599189</v>
+        <v>0.2628320833591593</v>
       </c>
     </row>
     <row r="264" spans="1:2">
@@ -3821,7 +3821,7 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>0.2609719643115402</v>
+        <v>0.2628320833591593</v>
       </c>
     </row>
     <row r="265" spans="1:2">
@@ -3829,7 +3829,7 @@
         <v>263</v>
       </c>
       <c r="B265">
-        <v>0.2609719643115402</v>
+        <v>0.2628320833591593</v>
       </c>
     </row>
     <row r="266" spans="1:2">
@@ -3837,7 +3837,7 @@
         <v>264</v>
       </c>
       <c r="B266">
-        <v>0.2609719643115402</v>
+        <v>0.2628320833591593</v>
       </c>
     </row>
     <row r="267" spans="1:2">
@@ -3845,7 +3845,7 @@
         <v>265</v>
       </c>
       <c r="B267">
-        <v>0.2609719643115402</v>
+        <v>0.2628320833591593</v>
       </c>
     </row>
     <row r="268" spans="1:2">
@@ -3853,7 +3853,7 @@
         <v>266</v>
       </c>
       <c r="B268">
-        <v>0.2609719643115402</v>
+        <v>0.2622704709855157</v>
       </c>
     </row>
     <row r="269" spans="1:2">
@@ -3861,7 +3861,7 @@
         <v>267</v>
       </c>
       <c r="B269">
-        <v>0.2596910960733392</v>
+        <v>0.2621560545676589</v>
       </c>
     </row>
     <row r="270" spans="1:2">
@@ -3869,7 +3869,7 @@
         <v>268</v>
       </c>
       <c r="B270">
-        <v>0.2593057624477011</v>
+        <v>0.2598253794310752</v>
       </c>
     </row>
     <row r="271" spans="1:2">
@@ -3877,7 +3877,7 @@
         <v>269</v>
       </c>
       <c r="B271">
-        <v>0.2590813318120275</v>
+        <v>0.2593057624477011</v>
       </c>
     </row>
     <row r="272" spans="1:2">
@@ -3885,7 +3885,7 @@
         <v>270</v>
       </c>
       <c r="B272">
-        <v>0.2581825520326575</v>
+        <v>0.2580381020168325</v>
       </c>
     </row>
     <row r="273" spans="1:2">
@@ -3893,7 +3893,7 @@
         <v>271</v>
       </c>
       <c r="B273">
-        <v>0.2580680831681885</v>
+        <v>0.2580381020168325</v>
       </c>
     </row>
     <row r="274" spans="1:2">
@@ -3901,7 +3901,7 @@
         <v>272</v>
       </c>
       <c r="B274">
-        <v>0.2580381020168325</v>
+        <v>0.2549773742739083</v>
       </c>
     </row>
     <row r="275" spans="1:2">
@@ -3909,7 +3909,7 @@
         <v>273</v>
       </c>
       <c r="B275">
-        <v>0.2580381020168325</v>
+        <v>0.2548629054094393</v>
       </c>
     </row>
     <row r="276" spans="1:2">
@@ -3917,7 +3917,7 @@
         <v>274</v>
       </c>
       <c r="B276">
-        <v>0.2546293235631512</v>
+        <v>0.252654678778927</v>
       </c>
     </row>
     <row r="277" spans="1:2">
@@ -3925,7 +3925,7 @@
         <v>275</v>
       </c>
       <c r="B277">
-        <v>0.2530798488469541</v>
+        <v>0.2516928342807363</v>
       </c>
     </row>
     <row r="278" spans="1:2">
@@ -3933,7 +3933,7 @@
         <v>276</v>
       </c>
       <c r="B278">
-        <v>0.2501399646646578</v>
+        <v>0.251540460940878</v>
       </c>
     </row>
     <row r="279" spans="1:2">
@@ -3941,7 +3941,7 @@
         <v>277</v>
       </c>
       <c r="B279">
-        <v>0.2497824429456581</v>
+        <v>0.2501399646646578</v>
       </c>
     </row>
     <row r="280" spans="1:2">
@@ -3949,7 +3949,7 @@
         <v>278</v>
       </c>
       <c r="B280">
-        <v>0.2493255301266868</v>
+        <v>0.2487674944124012</v>
       </c>
     </row>
     <row r="281" spans="1:2">
@@ -3957,7 +3957,7 @@
         <v>279</v>
       </c>
       <c r="B281">
-        <v>0.2394556716116656</v>
+        <v>0.2446640049449991</v>
       </c>
     </row>
     <row r="282" spans="1:2">
@@ -3965,7 +3965,7 @@
         <v>280</v>
       </c>
       <c r="B282">
-        <v>0.2394556716116656</v>
+        <v>0.2446640049449991</v>
       </c>
     </row>
     <row r="283" spans="1:2">
@@ -3973,7 +3973,7 @@
         <v>281</v>
       </c>
       <c r="B283">
-        <v>0.2394556716116656</v>
+        <v>0.2446640049449991</v>
       </c>
     </row>
     <row r="284" spans="1:2">
@@ -3981,7 +3981,7 @@
         <v>282</v>
       </c>
       <c r="B284">
-        <v>0.2360867632985444</v>
+        <v>0.2398926237027901</v>
       </c>
     </row>
     <row r="285" spans="1:2">
@@ -3989,7 +3989,7 @@
         <v>283</v>
       </c>
       <c r="B285">
-        <v>0.2346842903694566</v>
+        <v>0.2390629537747346</v>
       </c>
     </row>
     <row r="286" spans="1:2">
@@ -3997,7 +3997,7 @@
         <v>284</v>
       </c>
       <c r="B286">
-        <v>0.2317646687495036</v>
+        <v>0.2347408592256939</v>
       </c>
     </row>
     <row r="287" spans="1:2">
@@ -4005,7 +4005,7 @@
         <v>285</v>
       </c>
       <c r="B287">
-        <v>0.2314667654587499</v>
+        <v>0.233326884506369</v>
       </c>
     </row>
     <row r="288" spans="1:2">
@@ -4013,7 +4013,7 @@
         <v>286</v>
       </c>
       <c r="B288">
-        <v>0.2293880706167586</v>
+        <v>0.2323642610929488</v>
       </c>
     </row>
     <row r="289" spans="1:2">
@@ -4021,7 +4021,7 @@
         <v>287</v>
       </c>
       <c r="B289">
-        <v>0.2293880706167586</v>
+        <v>0.2323642610929488</v>
       </c>
     </row>
     <row r="290" spans="1:2">
@@ -4029,7 +4029,7 @@
         <v>288</v>
       </c>
       <c r="B290">
-        <v>0.2245686196661763</v>
+        <v>0.2253138978169167</v>
       </c>
     </row>
     <row r="291" spans="1:2">
@@ -4037,7 +4037,7 @@
         <v>289</v>
       </c>
       <c r="B291">
-        <v>0.223183893524366</v>
+        <v>0.2246290879324295</v>
       </c>
     </row>
     <row r="292" spans="1:2">
@@ -4053,7 +4053,7 @@
         <v>291</v>
       </c>
       <c r="B293">
-        <v>0.2227202049881392</v>
+        <v>0.223183893524366</v>
       </c>
     </row>
     <row r="294" spans="1:2">
@@ -4077,7 +4077,7 @@
         <v>294</v>
       </c>
       <c r="B296">
-        <v>0.2151179798839591</v>
+        <v>0.2203263132172926</v>
       </c>
     </row>
     <row r="297" spans="1:2">
@@ -4085,7 +4085,7 @@
         <v>295</v>
       </c>
       <c r="B297">
-        <v>0.2142647827309214</v>
+        <v>0.2172675408665041</v>
       </c>
     </row>
     <row r="298" spans="1:2">
@@ -4093,7 +4093,7 @@
         <v>296</v>
       </c>
       <c r="B298">
-        <v>0.2111663503903136</v>
+        <v>0.2157793094256466</v>
       </c>
     </row>
     <row r="299" spans="1:2">
@@ -4101,7 +4101,7 @@
         <v>297</v>
       </c>
       <c r="B299">
-        <v>0.2096781189494561</v>
+        <v>0.2142647827309214</v>
       </c>
     </row>
     <row r="300" spans="1:2">
@@ -4109,7 +4109,7 @@
         <v>298</v>
       </c>
       <c r="B300">
-        <v>0.2086082722787093</v>
+        <v>0.2134960104168866</v>
       </c>
     </row>
     <row r="301" spans="1:2">
@@ -4117,7 +4117,7 @@
         <v>299</v>
       </c>
       <c r="B301">
-        <v>0.2082876770835531</v>
+        <v>0.2086082722787093</v>
       </c>
     </row>
     <row r="302" spans="1:2">
@@ -4125,7 +4125,7 @@
         <v>300</v>
       </c>
       <c r="B302">
-        <v>0.2023765299549107</v>
+        <v>0.2001136778101023</v>
       </c>
     </row>
     <row r="303" spans="1:2">
@@ -4133,7 +4133,7 @@
         <v>301</v>
       </c>
       <c r="B303">
-        <v>0.1959760452761343</v>
+        <v>0.199322292525673</v>
       </c>
     </row>
     <row r="304" spans="1:2">
@@ -4141,7 +4141,7 @@
         <v>302</v>
       </c>
       <c r="B304">
-        <v>0.1949053444767688</v>
+        <v>0.1966374738497643</v>
       </c>
     </row>
     <row r="305" spans="1:2">
@@ -4149,7 +4149,7 @@
         <v>303</v>
       </c>
       <c r="B305">
-        <v>0.1891776602896047</v>
+        <v>0.1943859936229382</v>
       </c>
     </row>
     <row r="306" spans="1:2">
@@ -4157,7 +4157,7 @@
         <v>304</v>
       </c>
       <c r="B306">
-        <v>0.1877796749598279</v>
+        <v>0.1929880082931614</v>
       </c>
     </row>
     <row r="307" spans="1:2">
@@ -4165,7 +4165,7 @@
         <v>305</v>
       </c>
       <c r="B307">
-        <v>0.1877796749598279</v>
+        <v>0.1929880082931614</v>
       </c>
     </row>
     <row r="308" spans="1:2">
@@ -4173,7 +4173,7 @@
         <v>306</v>
       </c>
       <c r="B308">
-        <v>0.1877796749598279</v>
+        <v>0.1929880082931614</v>
       </c>
     </row>
     <row r="309" spans="1:2">
@@ -4189,7 +4189,7 @@
         <v>308</v>
       </c>
       <c r="B310">
-        <v>0.1817340751433705</v>
+        <v>0.1834581234847257</v>
       </c>
     </row>
     <row r="311" spans="1:2">
@@ -4197,7 +4197,7 @@
         <v>309</v>
       </c>
       <c r="B311">
-        <v>0.1782219905700213</v>
+        <v>0.1834581234847257</v>
       </c>
     </row>
     <row r="312" spans="1:2">
@@ -4205,7 +4205,7 @@
         <v>310</v>
       </c>
       <c r="B312">
-        <v>0.1782219905700213</v>
+        <v>0.1834581234847257</v>
       </c>
     </row>
     <row r="313" spans="1:2">
@@ -4213,7 +4213,7 @@
         <v>311</v>
       </c>
       <c r="B313">
-        <v>0.1782219905700213</v>
+        <v>0.1834581234847257</v>
       </c>
     </row>
     <row r="314" spans="1:2">
@@ -4221,7 +4221,7 @@
         <v>312</v>
       </c>
       <c r="B314">
-        <v>0.1782219905700213</v>
+        <v>0.1817340751433705</v>
       </c>
     </row>
     <row r="315" spans="1:2">
@@ -4229,7 +4229,7 @@
         <v>313</v>
       </c>
       <c r="B315">
-        <v>0.17527529004488</v>
+        <v>0.1756434964880527</v>
       </c>
     </row>
     <row r="316" spans="1:2">
@@ -4237,7 +4237,7 @@
         <v>314</v>
       </c>
       <c r="B316">
-        <v>0.1711141964008238</v>
+        <v>0.1700250765228668</v>
       </c>
     </row>
     <row r="317" spans="1:2">
@@ -4245,7 +4245,7 @@
         <v>315</v>
       </c>
       <c r="B317">
-        <v>0.1711141964008238</v>
+        <v>0.1699237202103476</v>
       </c>
     </row>
     <row r="318" spans="1:2">
@@ -4253,7 +4253,7 @@
         <v>316</v>
       </c>
       <c r="B318">
-        <v>0.1700250765228668</v>
+        <v>0.1699237202103476</v>
       </c>
     </row>
     <row r="319" spans="1:2">
@@ -4261,7 +4261,7 @@
         <v>317</v>
       </c>
       <c r="B319">
-        <v>0.1697254299126676</v>
+        <v>0.1692687094580088</v>
       </c>
     </row>
     <row r="320" spans="1:2">
@@ -4269,7 +4269,7 @@
         <v>318</v>
       </c>
       <c r="B320">
-        <v>0.1694278108650475</v>
+        <v>0.1686529459112107</v>
       </c>
     </row>
     <row r="321" spans="1:2">
@@ -4277,7 +4277,7 @@
         <v>319</v>
       </c>
       <c r="B321">
-        <v>0.1692687094580088</v>
+        <v>0.1661540013412388</v>
       </c>
     </row>
     <row r="322" spans="1:2">
@@ -4285,7 +4285,7 @@
         <v>320</v>
       </c>
       <c r="B322">
-        <v>0.1686529459112107</v>
+        <v>0.1658563822936188</v>
       </c>
     </row>
     <row r="323" spans="1:2">
@@ -4333,7 +4333,7 @@
         <v>326</v>
       </c>
       <c r="B328">
-        <v>0.1503756972371035</v>
+        <v>0.1480695742322833</v>
       </c>
     </row>
     <row r="329" spans="1:2">
@@ -4341,7 +4341,7 @@
         <v>327</v>
       </c>
       <c r="B329">
-        <v>0.1480695742322833</v>
+        <v>0.1460747170687247</v>
       </c>
     </row>
     <row r="330" spans="1:2">
@@ -4349,7 +4349,7 @@
         <v>328</v>
       </c>
       <c r="B330">
-        <v>0.147401094490299</v>
+        <v>0.145282152701633</v>
       </c>
     </row>
     <row r="331" spans="1:2">
@@ -4357,7 +4357,7 @@
         <v>329</v>
       </c>
       <c r="B331">
-        <v>0.147401094490299</v>
+        <v>0.1450945468712512</v>
       </c>
     </row>
     <row r="332" spans="1:2">
@@ -4365,7 +4365,7 @@
         <v>330</v>
       </c>
       <c r="B332">
-        <v>0.1460747170687247</v>
+        <v>0.1450945468712512</v>
       </c>
     </row>
     <row r="333" spans="1:2">
@@ -4373,7 +4373,7 @@
         <v>331</v>
       </c>
       <c r="B333">
-        <v>0.1457889315153769</v>
+        <v>0.1444533901164882</v>
       </c>
     </row>
     <row r="334" spans="1:2">
@@ -4381,7 +4381,7 @@
         <v>332</v>
       </c>
       <c r="B334">
-        <v>0.145282152701633</v>
+        <v>0.1444217918773869</v>
       </c>
     </row>
     <row r="335" spans="1:2">
@@ -4389,7 +4389,7 @@
         <v>333</v>
       </c>
       <c r="B335">
-        <v>0.1429088566881258</v>
+        <v>0.1406023090690784</v>
       </c>
     </row>
     <row r="336" spans="1:2">
@@ -4397,7 +4397,7 @@
         <v>334</v>
       </c>
       <c r="B336">
-        <v>0.1429088566881258</v>
+        <v>0.1406023090690784</v>
       </c>
     </row>
     <row r="337" spans="1:2">
@@ -4405,7 +4405,7 @@
         <v>335</v>
       </c>
       <c r="B337">
-        <v>0.1429088566881258</v>
+        <v>0.1406023090690784</v>
       </c>
     </row>
     <row r="338" spans="1:2">
@@ -4413,7 +4413,7 @@
         <v>336</v>
       </c>
       <c r="B338">
-        <v>0.1429088566881258</v>
+        <v>0.1406023090690784</v>
       </c>
     </row>
     <row r="339" spans="1:2">
@@ -4421,7 +4421,7 @@
         <v>337</v>
       </c>
       <c r="B339">
-        <v>0.1429088566881258</v>
+        <v>0.1406023090690784</v>
       </c>
     </row>
     <row r="340" spans="1:2">
@@ -4429,7 +4429,7 @@
         <v>338</v>
       </c>
       <c r="B340">
-        <v>0.1429088566881258</v>
+        <v>0.1406023090690784</v>
       </c>
     </row>
     <row r="341" spans="1:2">
@@ -4437,7 +4437,7 @@
         <v>339</v>
       </c>
       <c r="B341">
-        <v>0.1429088566881258</v>
+        <v>0.1406023090690784</v>
       </c>
     </row>
     <row r="342" spans="1:2">
@@ -4445,7 +4445,7 @@
         <v>340</v>
       </c>
       <c r="B342">
-        <v>0.1429088566881258</v>
+        <v>0.1406023090690784</v>
       </c>
     </row>
     <row r="343" spans="1:2">
@@ -4453,7 +4453,7 @@
         <v>341</v>
       </c>
       <c r="B343">
-        <v>0.1429088566881258</v>
+        <v>0.1406023090690784</v>
       </c>
     </row>
     <row r="344" spans="1:2">
@@ -4461,7 +4461,7 @@
         <v>342</v>
       </c>
       <c r="B344">
-        <v>0.1429088566881258</v>
+        <v>0.1406023090690784</v>
       </c>
     </row>
     <row r="345" spans="1:2">
@@ -4469,7 +4469,7 @@
         <v>343</v>
       </c>
       <c r="B345">
-        <v>0.1429088566881258</v>
+        <v>0.1406023090690784</v>
       </c>
     </row>
     <row r="346" spans="1:2">
@@ -4477,7 +4477,7 @@
         <v>344</v>
       </c>
       <c r="B346">
-        <v>0.1429088566881258</v>
+        <v>0.1406023090690784</v>
       </c>
     </row>
     <row r="347" spans="1:2">
@@ -4485,7 +4485,7 @@
         <v>345</v>
       </c>
       <c r="B347">
-        <v>0.1429088566881258</v>
+        <v>0.1406023090690784</v>
       </c>
     </row>
     <row r="348" spans="1:2">
@@ -4493,7 +4493,7 @@
         <v>346</v>
       </c>
       <c r="B348">
-        <v>0.1429088566881258</v>
+        <v>0.1406023090690784</v>
       </c>
     </row>
     <row r="349" spans="1:2">
@@ -4501,7 +4501,7 @@
         <v>347</v>
       </c>
       <c r="B349">
-        <v>0.1429088566881258</v>
+        <v>0.1406023090690784</v>
       </c>
     </row>
     <row r="350" spans="1:2">
@@ -4509,7 +4509,7 @@
         <v>348</v>
       </c>
       <c r="B350">
-        <v>0.1429088566881258</v>
+        <v>0.1406023090690784</v>
       </c>
     </row>
     <row r="351" spans="1:2">
@@ -4517,7 +4517,7 @@
         <v>349</v>
       </c>
       <c r="B351">
-        <v>0.1429088566881258</v>
+        <v>0.1406023090690784</v>
       </c>
     </row>
     <row r="352" spans="1:2">
@@ -4525,7 +4525,7 @@
         <v>350</v>
       </c>
       <c r="B352">
-        <v>0.1429088566881258</v>
+        <v>0.1406023090690784</v>
       </c>
     </row>
     <row r="353" spans="1:2">
@@ -4533,7 +4533,7 @@
         <v>351</v>
       </c>
       <c r="B353">
-        <v>0.1429088566881258</v>
+        <v>0.1406023090690784</v>
       </c>
     </row>
     <row r="354" spans="1:2">
@@ -4541,7 +4541,7 @@
         <v>352</v>
       </c>
       <c r="B354">
-        <v>0.1414456014011962</v>
+        <v>0.1404584808508118</v>
       </c>
     </row>
     <row r="355" spans="1:2">
@@ -4549,7 +4549,7 @@
         <v>353</v>
       </c>
       <c r="B355">
-        <v>0.1412025284698597</v>
+        <v>0.1401941659104466</v>
       </c>
     </row>
     <row r="356" spans="1:2">
@@ -4557,7 +4557,7 @@
         <v>354</v>
       </c>
       <c r="B356">
-        <v>0.1402493062499259</v>
+        <v>0.1398666243947615</v>
       </c>
     </row>
     <row r="357" spans="1:2">
@@ -4565,7 +4565,7 @@
         <v>355</v>
       </c>
       <c r="B357">
-        <v>0.1401941659104466</v>
+        <v>0.1343269991293103</v>
       </c>
     </row>
     <row r="358" spans="1:2">
@@ -4573,7 +4573,7 @@
         <v>356</v>
       </c>
       <c r="B358">
-        <v>0.1312557721220804</v>
+        <v>0.1322642565101115</v>
       </c>
     </row>
     <row r="359" spans="1:2">
@@ -4589,7 +4589,7 @@
         <v>358</v>
       </c>
       <c r="B360">
-        <v>0.1292880660339213</v>
+        <v>0.1275217482094848</v>
       </c>
     </row>
     <row r="361" spans="1:2">
@@ -4621,7 +4621,7 @@
         <v>362</v>
       </c>
       <c r="B364">
-        <v>0.117863116326409</v>
+        <v>0.1141290924138134</v>
       </c>
     </row>
     <row r="365" spans="1:2">
@@ -4629,7 +4629,7 @@
         <v>363</v>
       </c>
       <c r="B365">
-        <v>0.1145612156708626</v>
+        <v>0.111073632753391</v>
       </c>
     </row>
     <row r="366" spans="1:2">
@@ -4637,7 +4637,7 @@
         <v>364</v>
       </c>
       <c r="B366">
-        <v>0.1137342822407781</v>
+        <v>0.1094122365537049</v>
       </c>
     </row>
     <row r="367" spans="1:2">
@@ -4645,7 +4645,7 @@
         <v>365</v>
       </c>
       <c r="B367">
-        <v>0.113351353881908</v>
+        <v>0.1079110975760005</v>
       </c>
     </row>
     <row r="368" spans="1:2">
@@ -4653,7 +4653,7 @@
         <v>366</v>
       </c>
       <c r="B368">
-        <v>0.1122641089438672</v>
+        <v>0.1073851871121698</v>
       </c>
     </row>
     <row r="369" spans="1:2">
@@ -4661,7 +4661,7 @@
         <v>367</v>
       </c>
       <c r="B369">
-        <v>0.106750687575859</v>
+        <v>0.1061296146630866</v>
       </c>
     </row>
     <row r="370" spans="1:2">
@@ -4669,7 +4669,7 @@
         <v>368</v>
       </c>
       <c r="B370">
-        <v>0.106750687575859</v>
+        <v>0.1053903196557442</v>
       </c>
     </row>
     <row r="371" spans="1:2">
@@ -4677,7 +4677,7 @@
         <v>369</v>
       </c>
       <c r="B371">
-        <v>0.1062104173038914</v>
+        <v>0.1030605233123867</v>
       </c>
     </row>
     <row r="372" spans="1:2">
@@ -4685,7 +4685,7 @@
         <v>370</v>
       </c>
       <c r="B372">
-        <v>0.1009692370700874</v>
+        <v>0.1030605233123867</v>
       </c>
     </row>
     <row r="373" spans="1:2">
@@ -4693,7 +4693,7 @@
         <v>371</v>
       </c>
       <c r="B373">
-        <v>0.100562019499544</v>
+        <v>0.1009692370700874</v>
       </c>
     </row>
     <row r="374" spans="1:2">
@@ -4701,7 +4701,7 @@
         <v>372</v>
       </c>
       <c r="B374">
-        <v>0.1003690010585918</v>
+        <v>0.09975331257002851</v>
       </c>
     </row>
     <row r="375" spans="1:2">
@@ -4709,7 +4709,7 @@
         <v>373</v>
       </c>
       <c r="B375">
-        <v>0.09999585762795626</v>
+        <v>0.09878299032468507</v>
       </c>
     </row>
     <row r="376" spans="1:2">
@@ -4717,7 +4717,7 @@
         <v>374</v>
       </c>
       <c r="B376">
-        <v>0.09805263229791961</v>
+        <v>0.09724688950454308</v>
       </c>
     </row>
     <row r="377" spans="1:2">
@@ -4725,7 +4725,7 @@
         <v>375</v>
       </c>
       <c r="B377">
-        <v>0.09724688950454308</v>
+        <v>0.09516066772525855</v>
       </c>
     </row>
     <row r="378" spans="1:2">
@@ -4733,7 +4733,7 @@
         <v>376</v>
       </c>
       <c r="B378">
-        <v>0.09523132087167929</v>
+        <v>0.09423391566926509</v>
       </c>
     </row>
     <row r="379" spans="1:2">
@@ -4741,7 +4741,7 @@
         <v>377</v>
       </c>
       <c r="B379">
-        <v>0.09189431727121589</v>
+        <v>0.09100103821501504</v>
       </c>
     </row>
     <row r="380" spans="1:2">
@@ -4749,7 +4749,7 @@
         <v>378</v>
       </c>
       <c r="B380">
-        <v>0.09180223686454325</v>
+        <v>0.09039917564005306</v>
       </c>
     </row>
     <row r="381" spans="1:2">
@@ -4757,7 +4757,7 @@
         <v>379</v>
       </c>
       <c r="B381">
-        <v>0.09180223686454325</v>
+        <v>0.09039917564005306</v>
       </c>
     </row>
     <row r="382" spans="1:2">
@@ -4765,7 +4765,7 @@
         <v>380</v>
       </c>
       <c r="B382">
-        <v>0.09180223686454325</v>
+        <v>0.09039917564005306</v>
       </c>
     </row>
     <row r="383" spans="1:2">
@@ -4773,7 +4773,7 @@
         <v>381</v>
       </c>
       <c r="B383">
-        <v>0.09180223686454325</v>
+        <v>0.09039917564005306</v>
       </c>
     </row>
     <row r="384" spans="1:2">
@@ -4781,7 +4781,7 @@
         <v>382</v>
       </c>
       <c r="B384">
-        <v>0.09180223686454325</v>
+        <v>0.09039917564005306</v>
       </c>
     </row>
     <row r="385" spans="1:2">
@@ -4789,7 +4789,7 @@
         <v>383</v>
       </c>
       <c r="B385">
-        <v>0.09180223686454325</v>
+        <v>0.09039917564005306</v>
       </c>
     </row>
     <row r="386" spans="1:2">
@@ -4797,7 +4797,7 @@
         <v>384</v>
       </c>
       <c r="B386">
-        <v>0.09180223686454325</v>
+        <v>0.09039917564005306</v>
       </c>
     </row>
     <row r="387" spans="1:2">
@@ -4805,7 +4805,7 @@
         <v>385</v>
       </c>
       <c r="B387">
-        <v>0.09180223686454325</v>
+        <v>0.09039917564005306</v>
       </c>
     </row>
     <row r="388" spans="1:2">
@@ -4813,7 +4813,7 @@
         <v>386</v>
       </c>
       <c r="B388">
-        <v>0.09100103821501504</v>
+        <v>0.08938149756501002</v>
       </c>
     </row>
     <row r="389" spans="1:2">
@@ -4821,7 +4821,7 @@
         <v>387</v>
       </c>
       <c r="B389">
-        <v>0.08757519711848971</v>
+        <v>0.08827612401168961</v>
       </c>
     </row>
     <row r="390" spans="1:2">
@@ -4829,7 +4829,7 @@
         <v>388</v>
       </c>
       <c r="B390">
-        <v>0.0865754437395807</v>
+        <v>0.08757519711848971</v>
       </c>
     </row>
     <row r="391" spans="1:2">
@@ -4853,7 +4853,7 @@
         <v>391</v>
       </c>
       <c r="B393">
-        <v>0.08394371237276266</v>
+        <v>0.08385012271477033</v>
       </c>
     </row>
     <row r="394" spans="1:2">
@@ -4861,7 +4861,7 @@
         <v>392</v>
       </c>
       <c r="B394">
-        <v>0.08385012271477033</v>
+        <v>0.07947942665847685</v>
       </c>
     </row>
     <row r="395" spans="1:2">
@@ -4869,7 +4869,7 @@
         <v>393</v>
       </c>
       <c r="B395">
-        <v>0.07774528829500538</v>
+        <v>0.07942718330731346</v>
       </c>
     </row>
     <row r="396" spans="1:2">
@@ -4877,7 +4877,7 @@
         <v>394</v>
       </c>
       <c r="B396">
-        <v>0.07772650303520456</v>
+        <v>0.07821611200081802</v>
       </c>
     </row>
     <row r="397" spans="1:2">
@@ -4885,7 +4885,7 @@
         <v>395</v>
       </c>
       <c r="B397">
-        <v>0.07465825841629181</v>
+        <v>0.07774528829500538</v>
       </c>
     </row>
     <row r="398" spans="1:2">
@@ -4933,7 +4933,7 @@
         <v>401</v>
       </c>
       <c r="B403">
-        <v>0.07014416113276023</v>
+        <v>0.07195602917994903</v>
       </c>
     </row>
     <row r="404" spans="1:2">
@@ -4941,7 +4941,7 @@
         <v>402</v>
       </c>
       <c r="B404">
-        <v>0.06990897060224732</v>
+        <v>0.07195602917994903</v>
       </c>
     </row>
     <row r="405" spans="1:2">
@@ -4949,7 +4949,7 @@
         <v>403</v>
       </c>
       <c r="B405">
-        <v>0.06929373933953831</v>
+        <v>0.07195602917994903</v>
       </c>
     </row>
     <row r="406" spans="1:2">
@@ -4957,7 +4957,7 @@
         <v>404</v>
       </c>
       <c r="B406">
-        <v>0.0685958254047232</v>
+        <v>0.07195602917994903</v>
       </c>
     </row>
     <row r="407" spans="1:2">
@@ -4965,7 +4965,7 @@
         <v>405</v>
       </c>
       <c r="B407">
-        <v>0.06778382007850214</v>
+        <v>0.06929373933953831</v>
       </c>
     </row>
     <row r="408" spans="1:2">
@@ -4973,7 +4973,7 @@
         <v>406</v>
       </c>
       <c r="B408">
-        <v>0.06642881829559544</v>
+        <v>0.06863346039816554</v>
       </c>
     </row>
     <row r="409" spans="1:2">
@@ -4981,7 +4981,7 @@
         <v>407</v>
       </c>
       <c r="B409">
-        <v>0.06642881829559544</v>
+        <v>0.06596652158340532</v>
       </c>
     </row>
     <row r="410" spans="1:2">
@@ -4989,7 +4989,7 @@
         <v>408</v>
       </c>
       <c r="B410">
-        <v>0.06642881829559544</v>
+        <v>0.06583323826652943</v>
       </c>
     </row>
     <row r="411" spans="1:2">
@@ -4997,7 +4997,7 @@
         <v>409</v>
       </c>
       <c r="B411">
-        <v>0.06642881829559544</v>
+        <v>0.06583323826652943</v>
       </c>
     </row>
     <row r="412" spans="1:2">
@@ -5005,7 +5005,7 @@
         <v>410</v>
       </c>
       <c r="B412">
-        <v>0.06566937578089305</v>
+        <v>0.06413153969043739</v>
       </c>
     </row>
     <row r="413" spans="1:2">
@@ -5013,7 +5013,7 @@
         <v>411</v>
       </c>
       <c r="B413">
-        <v>0.06477298805221121</v>
+        <v>0.06314936655478043</v>
       </c>
     </row>
     <row r="414" spans="1:2">
@@ -5021,7 +5021,7 @@
         <v>412</v>
       </c>
       <c r="B414">
-        <v>0.0644549814063089</v>
+        <v>0.06270368494228395</v>
       </c>
     </row>
     <row r="415" spans="1:2">
@@ -5029,7 +5029,7 @@
         <v>413</v>
       </c>
       <c r="B415">
-        <v>0.06413255799442052</v>
+        <v>0.0624530182813714</v>
       </c>
     </row>
     <row r="416" spans="1:2">
@@ -5037,7 +5037,7 @@
         <v>414</v>
       </c>
       <c r="B416">
-        <v>0.06413255799442052</v>
+        <v>0.06147879093011843</v>
       </c>
     </row>
     <row r="417" spans="1:2">
@@ -5045,7 +5045,7 @@
         <v>415</v>
       </c>
       <c r="B417">
-        <v>0.06328060218270237</v>
+        <v>0.06034334388802587</v>
       </c>
     </row>
     <row r="418" spans="1:2">
@@ -5053,7 +5053,7 @@
         <v>416</v>
       </c>
       <c r="B418">
-        <v>0.06328060218270237</v>
+        <v>0.05954657827010701</v>
       </c>
     </row>
     <row r="419" spans="1:2">
@@ -5061,7 +5061,7 @@
         <v>417</v>
       </c>
       <c r="B419">
-        <v>0.06328060218270237</v>
+        <v>0.05954657827010701</v>
       </c>
     </row>
     <row r="420" spans="1:2">
@@ -5069,7 +5069,7 @@
         <v>418</v>
       </c>
       <c r="B420">
-        <v>0.06279709247952159</v>
+        <v>0.05954657827010701</v>
       </c>
     </row>
     <row r="421" spans="1:2">
@@ -5077,7 +5077,7 @@
         <v>419</v>
       </c>
       <c r="B421">
-        <v>0.06039517054826993</v>
+        <v>0.05822889959041677</v>
       </c>
     </row>
     <row r="422" spans="1:2">
@@ -5085,7 +5085,7 @@
         <v>420</v>
       </c>
       <c r="B422">
-        <v>0.05293712057273736</v>
+        <v>0.05307854880948626</v>
       </c>
     </row>
     <row r="423" spans="1:2">
@@ -5093,7 +5093,7 @@
         <v>421</v>
       </c>
       <c r="B423">
-        <v>0.05293712057273736</v>
+        <v>0.05010683441509478</v>
       </c>
     </row>
     <row r="424" spans="1:2">
@@ -5101,7 +5101,7 @@
         <v>422</v>
       </c>
       <c r="B424">
-        <v>0.05255320405619979</v>
+        <v>0.04847283485845177</v>
       </c>
     </row>
     <row r="425" spans="1:2">
@@ -5109,7 +5109,7 @@
         <v>423</v>
       </c>
       <c r="B425">
-        <v>0.04787531938253475</v>
+        <v>0.04847283485845177</v>
       </c>
     </row>
     <row r="426" spans="1:2">
@@ -5125,7 +5125,7 @@
         <v>425</v>
       </c>
       <c r="B427">
-        <v>0.04631079746850619</v>
+        <v>0.04601144915345023</v>
       </c>
     </row>
     <row r="428" spans="1:2">
@@ -5133,7 +5133,7 @@
         <v>426</v>
       </c>
       <c r="B428">
-        <v>0.04589786610175017</v>
+        <v>0.04489912890634384</v>
       </c>
     </row>
     <row r="429" spans="1:2">
@@ -5141,7 +5141,7 @@
         <v>427</v>
       </c>
       <c r="B429">
-        <v>0.04528328687060013</v>
+        <v>0.04472239311100279</v>
       </c>
     </row>
     <row r="430" spans="1:2">
@@ -5149,7 +5149,7 @@
         <v>428</v>
       </c>
       <c r="B430">
-        <v>0.0443981105512814</v>
+        <v>0.04462235589766861</v>
       </c>
     </row>
     <row r="431" spans="1:2">
@@ -5157,7 +5157,7 @@
         <v>429</v>
       </c>
       <c r="B431">
-        <v>0.04146212942555949</v>
+        <v>0.0443981105512814</v>
       </c>
     </row>
     <row r="432" spans="1:2">
@@ -5165,7 +5165,7 @@
         <v>430</v>
       </c>
       <c r="B432">
-        <v>0.0401730733831116</v>
+        <v>0.04043195408966294</v>
       </c>
     </row>
     <row r="433" spans="1:2">
@@ -5181,7 +5181,7 @@
         <v>432</v>
       </c>
       <c r="B434">
-        <v>0.03491163408754394</v>
+        <v>0.03729045374088269</v>
       </c>
     </row>
     <row r="435" spans="1:2">
@@ -5189,7 +5189,7 @@
         <v>433</v>
       </c>
       <c r="B435">
-        <v>0.0334465088743312</v>
+        <v>0.03441290197908531</v>
       </c>
     </row>
     <row r="436" spans="1:2">
@@ -5197,7 +5197,7 @@
         <v>434</v>
       </c>
       <c r="B436">
-        <v>0.03188314007432336</v>
+        <v>0.03193311243713071</v>
       </c>
     </row>
     <row r="437" spans="1:2">
@@ -5205,7 +5205,7 @@
         <v>435</v>
       </c>
       <c r="B437">
-        <v>0.03023243216502181</v>
+        <v>0.02770039180331518</v>
       </c>
     </row>
     <row r="438" spans="1:2">
@@ -5213,7 +5213,7 @@
         <v>436</v>
       </c>
       <c r="B438">
-        <v>0.02817031661534464</v>
+        <v>0.02629215529140638</v>
       </c>
     </row>
     <row r="439" spans="1:2">
@@ -5237,7 +5237,7 @@
         <v>439</v>
       </c>
       <c r="B441">
-        <v>0.01069411559596767</v>
+        <v>0.01402956790236742</v>
       </c>
     </row>
     <row r="442" spans="1:2">
@@ -5245,7 +5245,7 @@
         <v>440</v>
       </c>
       <c r="B442">
-        <v>0.006428347655578426</v>
+        <v>0.01199594281912075</v>
       </c>
     </row>
     <row r="443" spans="1:2">
@@ -5253,7 +5253,7 @@
         <v>441</v>
       </c>
       <c r="B443">
-        <v>0.003379708034126239</v>
+        <v>0.006376554304001525</v>
       </c>
     </row>
     <row r="444" spans="1:2">
@@ -5261,7 +5261,7 @@
         <v>442</v>
       </c>
       <c r="B444">
-        <v>0.0008089591404589758</v>
+        <v>0.002250874626239963</v>
       </c>
     </row>
     <row r="445" spans="1:2">
@@ -5269,7 +5269,7 @@
         <v>443</v>
       </c>
       <c r="B445">
-        <v>0.0006149477492556343</v>
+        <v>0.0006273850439164619</v>
       </c>
     </row>
     <row r="446" spans="1:2">
